--- a/Article_dataset.xlsx
+++ b/Article_dataset.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/araykassenkhan/Desktop/ПРОЕКТ ПЦФ/Статья Арай/for github/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD62359-943C-304E-B425-121358E5B2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="980" windowWidth="25800" windowHeight="17200" xr2:uid="{B320A807-61B9-0B45-8BC0-9D5DBCAD045D}"/>
+    <workbookView xWindow="0" yWindow="1960" windowWidth="25820" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$180</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="615">
   <si>
     <t>#</t>
   </si>
@@ -1057,12 +1051,1232 @@
   <si>
     <t>Daghestani, L. F., Ibrahim, L. F., Al-Towirgi, R. S., &amp; Salman, H. A. (2020). Adapting gamified learning systems using educational data mining techniques. Computer Applications in Engineering Education, 28(2), 568–589. https://doi.org/10.1002/cae.22227</t>
   </si>
+  <si>
+    <t>Key Features</t>
+  </si>
+  <si>
+    <t>Educational Benefits</t>
+  </si>
+  <si>
+    <t>Challenges and Limitations</t>
+  </si>
+  <si>
+    <t>Online gamified learning intervention
+Analysis of intrinsic and extrinsic motivation
+Study conducted with 100+ undergraduate students
+Assessment of gamification effects using pre- and post-intervention surveys
+Literature synthesis on gamified learning concepts</t>
+  </si>
+  <si>
+    <t>Increased student engagement
+Improved academic performance
+Positive impact on learning outcomes
+Applicable to various education levels
+Valuable insights for educators and learning practitioners</t>
+  </si>
+  <si>
+    <t>Effectiveness varies depending on intrinsic vs. extrinsic motivation
+Uneven impact of gamification on student participation
+Potential limitation in sample representativeness (focused on undergraduates)</t>
+  </si>
+  <si>
+    <t>Focus on 21st-century skills (Creativity, Critical Thinking, Collaboration, Communication – "4Cs")
+Assessment at both individual and institutional levels
+Introduction of labelization as a certification method for 4Cs skills
+Two frameworks from the International Institute for Competency Development for assessing formal and informal learning experiences
+Discussion on integrating AI and VR for future skill development</t>
+  </si>
+  <si>
+    <t>Provides a structured assessment and certification method for 4Cs skills
+Supports institutional recognition and development of soft skills in education and workforce training
+Promotes cultural valorization of creativity, critical thinking, communication, and collaboration
+Addresses challenges in teaching and integrating 4Cs into educational and professional contexts
+Suggests a dynamic interactionist model ("Crea-Critical-Collab-ication") for pedagogy and policy</t>
+  </si>
+  <si>
+    <t>Assessing soft skills like 4Cs is less standardized compared to technical skills
+Institutional implementation of labelization may require additional resources and standardization efforts
+Measuring systemic support for 4Cs development is complex and context-dependent
+Adopting AI and VR in skill development presents technological and ethical challenges</t>
+  </si>
+  <si>
+    <t>Focus on AI literacy for primary school education
+Identification of 17 AI literacy frameworks across all education levels
+Use of a scoping review with four indexed databases (19 articles analyzed)
+Analysis of existing theoretical and pedagogical frameworks for AI literacy
+Proposal of a new inclusive AI literacy framework considering human and technological interactions
+Incorporation of Bloom’s taxonomy, constructionism, and computer science perspectives</t>
+  </si>
+  <si>
+    <t>Expands AI literacy education to younger students, addressing an existing gap
+Provides a holistic and interdisciplinary approach, integrating digital literacy, data literacy, computational thinking, and AI ethics
+Supports curriculum design by offering an intelligence-based AI literacy framework
+Aligns AI literacy education with national government and institutional standards
+Contributes to the understanding of technological and societal impacts of AI for young learners</t>
+  </si>
+  <si>
+    <t>Limited existing frameworks tailored specifically for primary school students
+Current AI literacy education overemphasizes constructionist perspectives, neglecting human-technology interactions
+Difficulty in creating a standardized AI literacy framework for diverse educational contexts
+Ethical concerns and potential inequalities in AI education access and implementation</t>
+  </si>
+  <si>
+    <t>Introduction of Integrated Gamification-AI Learning Theory (IGALT), a pedagogical framework combining gamification and AI education
+Development of TransAI, a Lego-Transformer-like educational tool for AI learning
+Hands-on, interactive learning through AI missions in a smart city context
+Use of modular components (e.g., vision for interaction, analytical processing brain, PetScada for data gathering, Scooper for action-based learning)
+Focus on making AI education accessible and engaging for young learners</t>
+  </si>
+  <si>
+    <t>Enhances engagement and motivation in AI education through playful learning
+Provides hands-on experience in problem-solving and AI applications
+Encourages early interest in STEM fields through interactive exploration
+Translates abstract AI concepts into tangible, real-world applications
+Develops creativity, imagination, and foundational AI knowledge</t>
+  </si>
+  <si>
+    <t>Potential resource constraints in implementing TransAI in diverse educational settings
+Scalability concerns—applicability of the IGALT framework beyond the specific smart city context
+Need for teacher training to effectively integrate gamified AI learning into curricula
+Possible over-reliance on gamification, which may impact deep conceptual understanding if not balanced with theoretical learning</t>
+  </si>
+  <si>
+    <t>Focus on demographic differences in perceived benefits of gamification
+Study conducted using an online survey (N = 195) from Fitocracy, an exercise gamification platform
+Analysis of gender, age, and time using the service as influencing factors
+Evaluation of social, hedonic, and utilitarian benefits of gamification
+Exploration of facilitating features in gamified exercise</t>
+  </si>
+  <si>
+    <t>Provides insights into user engagement and the effectiveness of gamification over time
+Highlights gender-based differences, showing that women experience greater social benefits from gamification
+Offers data for improving user experience design in gamified learning and behavioral change applications
+Identifies novelty effects, showing that perceived enjoyment and usefulness decline with extended use
+Helps in designing adaptive and personalized gamification strategies for different demographics</t>
+  </si>
+  <si>
+    <t>Declining engagement over time due to novelty effects
+Ease of use decreases with age, which may limit accessibility for older users
+Study is limited to one platform (Fitocracy), potentially affecting generalizability
+Survey-based study, which may introduce self-reporting biases</t>
+  </si>
+  <si>
+    <t>Systematic literature review on gamification and computational thinking in education
+Analysis of 37 studies selected from four academic databases
+Exploration of gamification’s role in engagement and computational thinking’s role in critical and analytical thinking
+Examination of theoretical background, existing research, and gamified STEM applications
+Discussion on game mechanics and elements for fostering problem-solving skills</t>
+  </si>
+  <si>
+    <t>Provides a structured overview of how gamification and computational thinking contribute to education
+Shows that gamified STEM applications enhance student engagement and motivation
+Supports critical thinking, analytical reasoning, and digital skills development
+Highlights positive preliminary research outcomes, setting the stage for further investigation
+Reinforces the importance of game mechanics in fostering computational thinking</t>
+  </si>
+  <si>
+    <t>Early-stage research—findings indicate promising results but require further validation
+Potential variability in effectiveness, depending on game mechanics and implementation
+Limited number of studies (37), which may not capture the full scope of research in this field
+Challenges in integrating computational thinking into diverse educational settings</t>
+  </si>
+  <si>
+    <t>Focus on gamified mobile learning to enhance critical thinking skills
+Descriptive qualitative study with a thematic analysis approach
+Incorporates gamified challenges, decision-making scenarios, constructive feedback, collaboration, adaptive pathways, and immersive narratives
+Grounded in literature review and established theories on gamification and critical thinking
+Explores the natural context of learners' experiences, perceptions, and behaviors</t>
+  </si>
+  <si>
+    <t>Enhances critical thinking skills by fostering problem-solving, decision-making, and deep learning
+Increases learner engagement through dynamic, game-like learning environments
+Encourages active learning via interactive and immersive experiences
+Supports collaboration, reinforcing social learning and teamwork skills
+Adaptable learning pathways cater to different learning styles and needs</t>
+  </si>
+  <si>
+    <t>Qualitative approach may limit generalizability compared to experimental studies
+Effectiveness depends on design—poorly implemented gamification may not yield desired results
+Potential technological barriers in accessing gamified mobile learning tools
+Long-term impact on critical thinking development requires further investigation</t>
+  </si>
+  <si>
+    <t>Focus on integrating gamification into curriculum design for adolescent students
+Examines Gen Z learners and the need for new-age pedagogical interventions
+Investigates gamification’s role in fostering critical thinking, decision-making, and problem-solving
+Emphasizes dynamic and immersive learning experiences tailored to digital-native students
+Addresses the need for education system revamp to align with modern learning preferences</t>
+  </si>
+  <si>
+    <t>Enhances student engagement by integrating digital media into learning
+Supports critical thinking, decision-making, and problem-solving skills
+Adapts to Gen Z learning preferences, making education more relevant and interactive
+Provides immersive and experiential learning opportunities
+Encourages active participation and deeper cognitive processing</t>
+  </si>
+  <si>
+    <t>Effectiveness depends on curriculum design and proper implementation of gamification
+Potential resistance from traditional educators unfamiliar with gamified approaches
+Requires technological infrastructure, which may not be accessible to all schools
+Long-term impact on learning outcomes needs further empirical validation</t>
+  </si>
+  <si>
+    <t>Revised version of Bloom’s Taxonomy that updates the original 1956 framework
+Introduces a two-dimensional model combining knowledge types (factual, conceptual, procedural, and metacognitive) with cognitive processes (remember, understand, apply, analyze, evaluate, create)
+Shifts from static categories to a more dynamic and flexible cognitive framework
+Provides a structured approach for designing curricula, assessments, and learning objectives
+Supports educators in aligning instructional strategies with different levels of cognitive complexity</t>
+  </si>
+  <si>
+    <t>Helps teachers design learning experiences that progressively develop higher-order thinking skills
+Facilitates assessment alignment, ensuring that learning objectives, instruction, and evaluation are coherent
+Encourages active learning and critical thinking, moving beyond rote memorization
+Provides a clear structure for differentiating instruction across various subjects and education levels
+Enhances curriculum development by integrating cognitive and knowledge dimensions</t>
+  </si>
+  <si>
+    <t>Complexity in implementation—requires educators to deeply understand and apply the taxonomy effectively
+Some criticism for being too prescriptive or rigid, despite its intended flexibility
+The distinction between categories (e.g., "understand" vs. "apply") may not always be clear-cut in real-world learning
+Adoption across disciplines may vary, as some fields emphasize different cognitive processes
+Does not fully address modern digital learning environments (e.g., gamification, AI-driven education) without further adaptation</t>
+  </si>
+  <si>
+    <t>Philosophical exploration of critical thinking as a fundamental educational goal
+Argues that critical thinking is subject-specific, rather than a generalizable skill
+Criticizes traditional approaches that treat critical thinking as a set of abstract, transferable skills
+Emphasizes the importance of deep subject-matter knowledge in fostering critical thinking
+Advocates for problem-based learning and inquiry-based education as effective ways to cultivate critical thinking</t>
+  </si>
+  <si>
+    <t>Challenges educators to rethink how critical thinking is taught in schools and universities
+Encourages discipline-specific approaches to developing analytical and reasoning skills
+Supports active, inquiry-based learning rather than rote memorization
+Helps students develop intellectual autonomy by engaging deeply with subject matter
+Provides a theoretical foundation for modern critical thinking frameworks in education</t>
+  </si>
+  <si>
+    <t>Criticism for limiting critical thinking to subject-specific knowledge, which some argue reduces its broader applicability
+Lacks empirical research backing, as it is more theoretical and philosophical in nature
+Difficult to implement in standardized curricula, where general critical thinking skills are often prioritized
+Does not fully account for modern interdisciplinary education models, which emphasize cross-disciplinary thinking
+Raises challenges for assessment, as critical thinking is harder to measure when tied to specific disciplines</t>
+  </si>
+  <si>
+    <t>Development of a specialized scoring rubric for literary criticism writing in Indonesian high schools; Three-stage research and development process (research and information collection, planning, preliminary product development); Modification of Finken &amp; Ennis (1993) six-stage critical thinking model (focus, supporting, reasoning, organization, convention, integration); Addresses gaps in existing rubrics lacking clear assessment components; Requires further feasibility testing.</t>
+  </si>
+  <si>
+    <t>Provides a structured assessment tool for literary criticism writing; Enhances critical thinking skills through higher-order cognitive evaluation; Supports teachers in effectively grading analytical writing; Encourages discipline-specific rubric refinement; Strengthens students' structured reasoning and writing literacy.</t>
+  </si>
+  <si>
+    <t>Rubric requires feasibility testing and validation; Potential subjectivity in grading literary criticism; Limited generalizability beyond Indonesian high school education; Modification of Finken &amp; Ennis model requires further justification; Implementation may require teacher training for consistent application.</t>
+  </si>
+  <si>
+    <t>Examines the role of gamification in mobile application interface design; Focus on increasing user engagement, motivation, and usability through game elements; Analyzes gamification models and motivational theories; Evaluates the impact of gamification on UI/UX in educational mobile applications; Develops and tests the interface of "Quistudy," a gamified educational app.</t>
+  </si>
+  <si>
+    <t>Enhances user engagement and motivation in educational mobile apps; Improves interface usability, making learning experiences more interactive and enjoyable; Provides insights for designing effective gamified learning applications; Supports behavior change and learning retention through gamification; Contributes to UI/UX best practices in mobile learning environments.</t>
+  </si>
+  <si>
+    <t>Effectiveness depends on the quality of UI/UX design and gamification implementation; Potential user fatigue if gamification elements are overused; Requires usability testing and iterative improvements; Limited focus on long-term learning outcomes beyond engagement; Applicability may vary across different educational contexts and user demographics.</t>
+  </si>
+  <si>
+    <t>Examines misconceptions and conceptual confusion surrounding gamification in Hungarian education; Analyzes gamification models used in Hungarian pedagogical practice, particularly the Bunchball model and Tibor Prievara’s system; Clarifies the concept, elements, and criteria of gamification for educational discourse; Explores the role of narrative as a game mechanic in Hungarian gamification practices; Reviews international and Hungarian perspectives on gamification’s critical issues.</t>
+  </si>
+  <si>
+    <t>Enhances understanding of gamification’s proper application in education; Provides insights into gamification models adapted to Hungarian pedagogy; Supports the integration of narrative-driven gamification techniques; Encourages informed discussions on gamification’s role in educational assessment; Contributes to developing evidence-based gamification strategies in Hungary.</t>
+  </si>
+  <si>
+    <t>Conceptual confusion and misconceptions about gamification hinder effective implementation; Limited empirical research on gamification’s impact in Hungarian education; Potential resistance from educators unfamiliar with game-based learning approaches; Need for adaptation of international gamification models to local educational contexts; Effectiveness may vary depending on subject matter and student engagement levels.</t>
+  </si>
+  <si>
+    <t>Investigates the impact of educational technology on fostering critical thinking; Utilizes a mixed-methods approach (quantitative assessments + qualitative analysis); Explores innovative learning models such as gamification, VR simulations, and collaborative online platforms; Highlights the positive correlation between technology use and critical thinking development; Emphasizes the role of teacher training programs for effective technology integration.</t>
+  </si>
+  <si>
+    <t>Enhances student engagement and analytical thinking through immersive learning models; Supports problem-solving and decision-making skills using cutting-edge educational tools; Encourages collaborative learning via online platforms; Provides insights for optimizing teacher training in technology-enhanced pedagogy; Helps prepare students for 21st-century challenges by integrating critical thinking into digital learning.</t>
+  </si>
+  <si>
+    <t>Effectiveness depends on access to technology and institutional support; Teacher preparedness is crucial—lack of training may hinder implementation; Variability in student engagement with different learning models; Long-term impact on critical thinking skills requires further empirical validation; Ethical concerns and digital divide issues may limit equitable access to technology-driven learning.</t>
+  </si>
+  <si>
+    <t>Develops a Gamification for Student Engagement Framework by synthesizing gamification and student engagement literature; Addresses the unclear relationship between gamification, engagement, and learning outcomes; Highlights behavioural, cognitive, and affective aspects of engagement; Provides a structured approach for designing gamified learning experiences; Aims to generate empirical evidence on gamification’s effectiveness.</t>
+  </si>
+  <si>
+    <t>Helps educators systematically design gamified learning environments; Supports motivation, deeper cognitive engagement, and learning outcomes; Enhances student satisfaction and well-being across disciplines; Bridges the gap between gamification theory and practical application; Offers a framework adaptable to various educational contexts.</t>
+  </si>
+  <si>
+    <t>Requires further empirical validation to confirm effectiveness; Lack of standardized implementation may lead to inconsistent results; Potential overemphasis on engagement without guaranteeing learning gains; Applicability across different subjects and student populations needs further research; Educators may require training and resources to implement gamification effectively.</t>
+  </si>
+  <si>
+    <t>Theoretical analysis of gamification in education; Examines gamification tools and resources for higher education; Uses system, personality-oriented, and activity-based approaches; Identifies mechanisms of internal and external motivation in gamified learning; Explores integration of gaming elements (tasks, feedback, levels, creativity) into education; Highlights the role of gamification in regulating behavior and engagement.</t>
+  </si>
+  <si>
+    <t>Enhances student motivation and cognitive engagement; Supports active learning and personal development; Encourages creative cooperation and friendly competition in education; Bridges traditional and innovative teaching methods for improved learning outcomes; Provides guidelines for integrating gamification into higher education curricula.</t>
+  </si>
+  <si>
+    <t>Theoretical focus—lacks empirical validation of proposed models; Effectiveness may vary based on subject matter and student demographics; Requires faculty training for proper implementation; Potential overuse of gamification may reduce its motivational impact over time; Balancing traditional and gamified methods remains a challenge for educators.</t>
+  </si>
+  <si>
+    <t>Systematic literature review analyzing 46 empirical studies (2016–2019) from Web of Science; Examines gamification’s impact on learning, motivation, and engagement; Identifies emerging trends in gamification technologies and plugins; Critically evaluates contradictions in existing research; Explores theoretical models, game mechanics, learning outcomes, and methodological approaches; Highlights future research directions for gamified learning.</t>
+  </si>
+  <si>
+    <t>Provides empirical evidence on gamification’s effectiveness in education; Identifies key enablers of motivation, engagement, and user experience; Offers insights into gaming platforms, apps, and instructional strategies; Helps refine theoretical foundations and best practices for gamified learning; Supports innovation in learning technologies to enhance instructional design.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contradictions in research require further theoretical and empirical validation; Methodological inconsistencies across studies impact generalizability; Long-term learning effects of gamification remain unclear; Potential over-reliance on gamification without considering intrinsic learning factors; Technological accessibility and equity issues may limit widespread adoption.
+</t>
+  </si>
+  <si>
+    <t>Systematic review on over-reliance on AI dialogue systems in education; Analyzes effects on cognitive abilities such as decision-making, critical thinking, and analytical reasoning; Follows PRISMA guidelines and reviews 14 articles from ProQuest, IEEE Xplore, ScienceDirect, and Web of Science; Examines ethical concerns contributing to over-reliance on AI; Discusses heuristic-based decision-making and preference for AI-generated quick solutions.</t>
+  </si>
+  <si>
+    <t>Raises awareness of AI’s impact on students' cognitive development; Helps educators design strategies to mitigate over-reliance on AI tools; Encourages critical evaluation of AI-generated content in academic settings; Contributes to AI ethics discussions in education and research; Provides insights into how students interact with generative AI models for learning.</t>
+  </si>
+  <si>
+    <t>Limited sample size (14 studies) may restrict generalizability; Long-term cognitive impacts of AI reliance require further empirical validation; Difficult to separate AI influence from other digital learning factors; Potential bias in selected literature due to database constraints; Balancing AI’s benefits and risks remains a challenge for educators.</t>
+  </si>
+  <si>
+    <t>Examines AI’s impact on decision-making loss, laziness, and privacy concerns in education; Focuses on university students in Pakistan and China; Uses qualitative methodology with PLS-Smart for data analysis; Primary data from 285 students collected through purposive sampling; Findings indicate AI contributes significantly to laziness (68.9%), privacy/security issues (68.6%), and decision-making loss (27.7%).</t>
+  </si>
+  <si>
+    <t>Highlights the need for responsible AI integration in education; Raises awareness of potential cognitive and behavioral shifts due to AI reliance; Encourages institutions to develop ethical AI frameworks for education; Provides data-driven insights on AI’s unintended consequences in academic settings; Calls for preventive measures before widespread AI adoption in education.</t>
+  </si>
+  <si>
+    <t>Potential bias due to purposive sampling method; Findings may not be generalizable beyond Pakistan and China; Qualitative approach limits empirical validation of causal relationships; Focus on negative aspects may overlook AI’s educational benefits; Ethical and policy recommendations needed to balance AI risks and advantages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI’s transformative impact on student learning culture in Indonesia; Aligns with SDG 4 (Quality Education) goals; Surveys 230 students across nine faculties (arts, business, law, sciences, etc.); Uses questionnaires and interviews to analyze AI’s effects on learning behaviors; Identifies both efficiency gains and academic integrity concerns.
+</t>
+  </si>
+  <si>
+    <t>Raises concerns about academic integrity and critical thinking decline; Requires monitoring to ensure responsible AI use in education; Survey-based findings may not fully capture long-term impacts; Variability in AI access may widen educational inequalities; Needs further research on balancing AI benefits with traditional learning methods.</t>
+  </si>
+  <si>
+    <t>Enhances self-confidence, learning speed, and academic efficiency; Encourages autonomous learning and digital literacy; Reduces time spent on research and task completion; Supports adaptive teaching strategies to integrate AI effectively; Contributes to discussions on AI’s role in equitable education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explores AI’s role in transforming education through pedagogy and content adaptation; Discusses AI’s accessibility via low-cost smart devices and edge computing; Analyzes AI’s impact on educational processes (teaching methods, educator roles) and educational content; Highlights AI-driven automation of certain educational tasks; Predicts transformation of professions and the need for new educational paradigms.
+</t>
+  </si>
+  <si>
+    <t>Enhances teaching efficiency and curriculum adaptation; Supports personalized learning experiences through AI-driven tools; Encourages integration of AI in educational decision-making; Prepares students for AI-driven job market transformations; Enables data-driven insights for optimizing learning environments.</t>
+  </si>
+  <si>
+    <t>Blurring boundaries between AI and broader technological advancements; Potential job displacement for educators due to AI automation; Need for continuous curriculum updates to match AI-driven industry changes; Ethical concerns and data privacy issues in AI-assisted education; Challenges in ensuring equitable access to AI-driven learning tools.</t>
+  </si>
+  <si>
+    <t>Explores the integration of Generative AI (GAI) and gamification in personalized learning; Analyzes GAI models (BERT, ChatGPT, GANs) for content creation (text, image, video); Highlights adaptive gamification as a tool for dynamic and engaging learning environments; Discusses the need for a dynamic adaptation engine for personalized learning; Reviews AI-driven customization based on learner needs, personality, values, and motivation.</t>
+  </si>
+  <si>
+    <t>Enhances personalized learning experiences through AI-generated content; Supports adaptive gamification for increased engagement and motivation; Enables customized educational pathways based on learner behavior; Combines AI and gamification to create interactive, fun, and effective learning environments; Advances virtual teaching and AI-assisted educational tools.</t>
+  </si>
+  <si>
+    <t>Lack of a standardized adaptation engine for AI-driven gamification; Ethical concerns and bias in AI-generated content; Potential over-reliance on AI, reducing human educator involvement; Need for empirical validation of GAI’s effectiveness in gamified learning; Technical and resource constraints in implementing AI-driven gamification at scale.</t>
+  </si>
+  <si>
+    <t>Explores gamification as a teaching approach for modern learning environments; Highlights cognitive, emotional, and behavioral benefits of gamification; Emphasizes critical thinking, curiosity, and active participation; Discusses the shift from traditional to experiential and problem-based learning; Acknowledges controversies surrounding gamification in education.</t>
+  </si>
+  <si>
+    <t>Increases learner engagement and motivation; Enhances critical thinking and problem-solving skills; Promotes active participation and curiosity-driven learning; Supports team-based and experiential learning approaches; Makes knowledge transfer more interactive and enjoyable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debates over gamification’s effectiveness in education; Potential overemphasis on fun at the expense of deep learning; Difficulty in designing balanced gamified experiences; Varied student responses based on learning styles and preferences; Need for educator training to implement gamification effectively.
+</t>
+  </si>
+  <si>
+    <t>Meta-analysis of 341 effect sizes from quasi- and true-experimental studies; Investigates the impact of instruction on critical thinking (CT) skills and dispositions; Uses standardized measures of CT as outcome variables; Finds an overall weighted mean effect size (g+ = 0.30, p &lt; .001); Identifies effective teaching strategies for CT across all educational levels and disciplines.</t>
+  </si>
+  <si>
+    <t>Confirms that CT can be effectively taught using specific strategies; Supports both generic and content-specific approaches to CT instruction; Highlights dialogue, exposure to real-world problems, and mentoring as key CT-enhancing methods; Reinforces the importance of structured teaching approaches in fostering CT skills; Provides empirical evidence for educators designing CT-focused curricula.</t>
+  </si>
+  <si>
+    <t>Heterogeneous data suggests variability in CT instruction effectiveness; CT development may depend on context (subject, student demographics, teaching style); Long-term retention of CT skills remains uncertain; Requires well-trained educators to implement CT strategies effectively; Potential bias in study selection or measurement inconsistencies across studies.</t>
+  </si>
+  <si>
+    <t>Develops a Project-Based Learning (PBL) eBook for critical and creative reading; Follows the Research and Development (R&amp;D) model by Borg and Gall; Conducts needs analysis, planning, development, validation, revisions, response tests, and trials; Assesses validity through expert evaluations (material experts: 3.40/good, layout expert: 4.65/very good); Uses Aiken V formula for student response tests (0.85–1.00, very good); Experimental results show significant improvement in critical thinking (p &lt; 0.05).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides accessible digital learning materials to support critical reading skills; Enhances critical and creative thinking through PBL-based e-learning; Offers empirically validated teaching resources for higher education; Encourages interactive and independent learning; Supports curriculum innovation in Indonesian Language Education.
+</t>
+  </si>
+  <si>
+    <t>Implementation requires digital access, which may limit some students; Effectiveness depends on instructional design and student engagement; Limited generalizability beyond Indonesian higher education; Teacher training needed for effective integration of PBL-based eBooks; Potential bias in expert evaluations and student responses.</t>
+  </si>
+  <si>
+    <t>Develops BOTIPOSTEM, a STEM-integrated e-book using the Creative Problem Solving (CPS) model; Follows the ADDIE research and development (R&amp;D) model; Uses interviews, questionnaires, validation sheets, and readability sheets for data collection; Assessed by material experts (Aiken’s V = 0.96) and media experts (Aiken’s V = 0.92); Readability scores: 96% (teachers) and 93% (students); Aims to enhance critical and creative thinking skills in environmental change education.</t>
+  </si>
+  <si>
+    <t>Enhances critical and creative thinking through STEM and CPS-based learning; Provides a validated and high-readability e-learning resource; Supports interactive and problem-solving skills development; Encourages teacher and student engagement in environmental education; Aligns with 21st-century learning competencies.</t>
+  </si>
+  <si>
+    <t>Implementation may require teacher training for effective use; Limited generalizability beyond environmental change topics; Dependent on digital access and technology infrastructure; Effectiveness in long-term learning outcomes requires further study; Potential bias in expert and participant evaluations.</t>
+  </si>
+  <si>
+    <t>Develops an AI-powered book recommendation system using popularity-based, collaborative filtering, content-based, and Lexile-based models; Uses Goodreads dataset focusing on high school students; Implements Python libraries for model development; Aims to encourage both leisure and educational reading; Highlights personalized reading list creation for students.</t>
+  </si>
+  <si>
+    <t>Enhances student engagement in reading through personalized recommendations; Supports both academic and leisure reading habits; Uses AI to tailor book suggestions to students’ interests and reading levels; Encourages self-directed learning and exploration of literature; Demonstrates practical AI applications in education.</t>
+  </si>
+  <si>
+    <t>No single best recommendation model for all students; Lexile-based recommendations may not fully capture content complexity; Requires continuous refinement for improved accuracy; Potential data biases from Goodreads dataset; Limited generalizability beyond high school students.</t>
+  </si>
+  <si>
+    <t>Explores teacher perspectives on AI-driven gamification in education; Uses qualitative research methods to analyze experiences and insights; Identifies themes such as motivation, engagement, enhanced learning, and implementation challenges; Highlights positive perceptions of AI-enhanced gamification; Addresses concerns like professional development, technical issues, and curriculum alignment.</t>
+  </si>
+  <si>
+    <t>Increases student motivation, participation, and engagement; Enhances learning experiences through autonomy and real-time feedback; Improves knowledge retention and problem-solving skills; Supports democratic and transformative learning environments; Provides insights for optimizing AI-driven gamification in education.</t>
+  </si>
+  <si>
+    <t>Implementation challenges (technical issues, teacher training, curriculum integration); Long-term effects on learning outcomes remain unclear; Potential over-reliance on gamification may reduce intrinsic motivation; Difficulty in standardizing AI-driven gamification across different subjects; Requires further empirical studies to validate findings.</t>
+  </si>
+  <si>
+    <t>Conducts qualitative content analysis of early adopters' perceptions of ChatGPT in education; Analyzes social media discussions on its use in higher education, K-12, and practical skills training; Identifies key themes such as productivity, efficiency, and ethics; Explores both positive and negative perspectives on ChatGPT’s educational impact; Highlights concerns about overdependence, superficial learning, and critical thinking erosion.</t>
+  </si>
+  <si>
+    <t>Enhances student self-efficacy and learning motivation; Increases productivity and efficiency in academic tasks; Provides adaptive, AI-assisted learning experiences; Supports educators in integrating AI into pedagogy; Offers crowd-sourced insights for AI-driven education strategies.</t>
+  </si>
+  <si>
+    <t>Concerns over AI overdependence leading to reduced critical thinking; Potential for superficial learning habits rather than deep understanding; Ethical issues in AI-assisted learning environments; Varied perceptions among educators and students about AI’s role; Human-AI interaction in education remains complex and needs further study.</t>
+  </si>
+  <si>
+    <t>Explores opportunities and challenges of large language models (LLMs) like ChatGPT in education; Discusses applications for content creation, student engagement, and personalized learning; Highlights competencies needed for educators and students to understand and critically evaluate AI; Emphasizes the need for fact-checking, human oversight, and ethical AI use; Addresses concerns about bias, system brittleness, and potential misuse.</t>
+  </si>
+  <si>
+    <t>Supports personalized learning experiences; Enhances student engagement and interaction; Assists in educational content creation for teachers; Encourages critical thinking and AI literacy in students; Prepares learners for societal and ethical challenges of AI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential bias in AI-generated content; Need for teacher training to integrate LLMs effectively; Risk of misinformation without strong fact-checking strategies; Ethical concerns and misuse of AI-generated responses; Requires a clear pedagogical framework for responsible AI adoption.
+</t>
+  </si>
+  <si>
+    <t>Examines the role of AI in human behavioral development and skills acquisition in education; Focuses on 21st-century skills (Creativity, Critical Thinking, Problem-Solving, and Computational Thinking); Discusses European frameworks (DigComp, 21st-century skills) for lifelong learning; Explores technologies like AI, VR, AR, Gamification, and Intelligent Tutoring Systems (ITS) in personalized education; Highlights the transition from knowledge-based to competence-based education.</t>
+  </si>
+  <si>
+    <t>Supports personalized learning experiences through AI and emerging technologies; Enhances creativity, critical thinking, and problem-solving skills; Helps teachers use AI as a teaching aid to foster cognitive skill development; Encourages computational thinking through AI-driven learning models; Provides a research-based perspective on integrating AI into education.</t>
+  </si>
+  <si>
+    <t>Variation in AI and 21st-century skill implementation across regions; Ethical and pedagogical concerns in AI-driven education; Potential teacher resistance to AI and technology integration; Need for more empirical research on AI’s long-term impact on skill development; Access and equity issues in adopting AI-based educational technologies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigates pedagogical, technological, and school factors influencing critical thinking curricula in K-6 education; Uses video and audio data from 41 students via an iPad recording app; Applies a literature-based framework to analyze indicators of critical thinking; Examines teacher pedagogical knowledge, school-wide commitment, and curriculum design; Highlights the role of technology in supporting critical thinking instruction.
+</t>
+  </si>
+  <si>
+    <t>Provides empirical evidence on how to implement critical thinking curricula in K-6; Identifies key strategies for fostering reasoned argumentation, questioning, and evidence-based analysis; Emphasizes the role of school-wide frameworks and research-informed pedagogy; Supports explicit teaching of critical thinking as a priority at all levels; Addresses the need for critical information literacy in the era of AI and digital technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited sample size (41 students) may affect generalizability; Requires teacher training to effectively integrate critical thinking instruction; Implementation complexity due to the need for school-wide commitment; Technological access and infrastructure may impact adoption; Long-term effects of the curriculum on critical thinking skills need further research.
+</t>
+  </si>
+  <si>
+    <t>Investigates AI and gamification in blended learning for language and literacy instruction in Shanxi, China; Uses a quasi-experimental design with 200 students (ages 6–12), split into experimental and control groups; Applies constructivist, adaptive learning, and gamification theories; Measures AI-driven personalized learning paths and gamification effects on student engagement, motivation, vocabulary, and reading comprehension; Uses surveys, test scores, correlation, and regression analyses for data evaluation.</t>
+  </si>
+  <si>
+    <t>Enhances language acquisition and literacy skills through AI-driven personalization; Improves vocabulary learning by 25% and reading comprehension by 30%; Boosts student engagement by 20% and motivation by 15% with gamification; Demonstrates blended learning’s effectiveness in combining face-to-face and online education; Provides practical recommendations for integrating AI and gamification into curriculum design.</t>
+  </si>
+  <si>
+    <t>Scalability concerns—long-term impact requires further study; Implementation challenges—teacher training and infrastructure needed; Potential digital divide—access to AI and gamified tools may vary; Cultural and contextual factors may affect applicability outside of Shanxi, China; Gamification and AI effectiveness depend on instructional design and student adaptability.</t>
+  </si>
+  <si>
+    <t>Investigates the impact of AI tools on critical thinking with a focus on cognitive offloading as a mediating factor; Uses a mixed-method approach (surveys + in-depth interviews) with 666 participants of varying ages and educational backgrounds; Analyzes quantitative data via ANOVA and correlation analysis; Conducts thematic analysis of interview transcripts; Finds a negative correlation between frequent AI use and critical thinking skills, with younger users showing higher AI dependence.</t>
+  </si>
+  <si>
+    <t>Raises awareness of AI’s cognitive implications on learning and decision-making; Provides insights for educators and policymakers on balancing AI integration in education; Highlights the importance of fostering critical engagement with AI tools; Suggests educational strategies to mitigate AI-related cognitive offloading; Encourages interdisciplinary discussions on AI’s role in cognitive development.</t>
+  </si>
+  <si>
+    <t>Correlation does not imply causation—other factors may influence critical thinking decline; Findings may be affected by self-reporting bias in surveys and interviews; Variability in AI tool usage across different contexts may impact generalizability; Potential generational and educational disparities in AI reliance and cognitive effects; Long-term effects of AI reliance on cognition require further research.</t>
+  </si>
+  <si>
+    <t>Investigates AI-driven gamification in education and its impact on motivation, engagement, and performance; Explores intrinsic and extrinsic motivation, goal orientation, and self-efficacy; Analyzes gamification elements (points, badges, storytelling) and AI technologies (machine learning, NLP, computer vision); Discusses technological, pedagogical, and social challenges; Highlights future trends like AR/VR integration and multimodal learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhances learner motivation, participation, and risk-taking; Supports personalized learning experiences through AI-driven adaptation; Encourages social interaction and collaborative learning; Provides structured gamification mechanics to optimize engagement; Offers practical recommendations for implementation, including teacher training and policy support.
+</t>
+  </si>
+  <si>
+    <t>Technological issues (glitches, compatibility, data privacy concerns); Balancing education and entertainment to maintain learning effectiveness; Addressing individual differences in AI-driven gamified learning; Equity and accessibility concerns in diverse cultural and socioeconomic contexts; Need for institutional support to scale AI-gamification strategies effectively.</t>
+  </si>
+  <si>
+    <t>Investigates the impact of gamification and academic ability on metacognition and critical thinking in high school Biology education; Compares gamification with the synchronous-asynchronous method; Uses a 2x2 factorial quasi-experimental design with 62 students; Follows Dick &amp; Carey development steps for instructional design; Analyzes data using MANOVA statistical techniques.</t>
+  </si>
+  <si>
+    <t>Enhances critical thinking and metacognitive skills through gamification; Demonstrates the importance of academic ability in learning outcomes; Supports interactive and engaging learning methods in science education; Provides empirical evidence for gamification’s effectiveness in high school settings; Offers insights for curriculum development and instructional strategies.</t>
+  </si>
+  <si>
+    <t>Small sample size (62 students) may limit generalizability; Effectiveness of gamification may vary based on student academic ability; Long-term impact on critical thinking and metacognition needs further study; Requires teacher training for effective gamification implementation; Potential variability in engagement levels among different learners.</t>
+  </si>
+  <si>
+    <t>Proposes AI Thinking, a conceptual framework for interdisciplinary AI use; Defines five key competencies: motivating AI use, formulating AI methods, assessing tools, selecting data, and situating AI in sociotechnical contexts; Addresses conflicting perspectives on AI across disciplines; Provides a hypothetical case study to illustrate AI Thinking in practice; Connects AI Thinking to AI literacy, innovation, and policy discussions.</t>
+  </si>
+  <si>
+    <t>Enhances AI literacy by providing a structured approach to AI application; Bridges disciplinary gaps in understanding and using AI; Supports educators, researchers, and industry professionals in AI decision-making; Encourages critical thinking about AI’s societal and ethical implications; Contributes to AI-driven education, industrial development, and policymaking.</t>
+  </si>
+  <si>
+    <t>Conceptual framework requires empirical validation in real-world applications; Potential difficulty in standardizing AI Thinking across diverse disciplines; Interdisciplinary AI education may require specialized training for educators; Effectiveness of AI Thinking in improving AI literacy needs further research; Complex sociotechnical factors may impact practical implementation.</t>
+  </si>
+  <si>
+    <t>Investigates the impact of game-based student response systems (GSRSs) on learning experiences in face-to-face classrooms; Conducts a field experiment in a Dutch secondary school; Examines effects on learning outcomes, motivation, concentration, and enjoyment; Explores GSRSs’ role in reducing performance disparities between students; Highlights the social and educational benefits of technology integration in physical classrooms.</t>
+  </si>
+  <si>
+    <t>Enhances student engagement and motivation through interactive learning; Supports active learning strategies in traditional classrooms; Promotes inclusive education by bridging performance gaps; Improves concentration and enjoyment in the learning process; Demonstrates the positive social impact of educational technology.</t>
+  </si>
+  <si>
+    <t>Effectiveness may vary depending on classroom dynamics and teacher implementation; Long-term impact on learning outcomes requires further study; Potential technological barriers (device availability, internet access); Teacher training needed to integrate GSRSs effectively; Student preference for traditional vs. game-based learning may differ.</t>
+  </si>
+  <si>
+    <t>Develops an Adaptive Gamified Learning System (AGLS) combining gamification, educational data mining (EDM), and adaptive learning; Uses AI and data mining techniques to personalize learning based on student navigation history; Analyzes the impact of adaptive gamification on engagement and learning performance; Applies AGLS to a data structure course; Demonstrates that adaptive gamification outperforms standard gamification in e-learning effectiveness.</t>
+  </si>
+  <si>
+    <t>Enhances student engagement and motivation through adaptive game mechanics; Supports personalized learning experiences based on data-driven insights; Improves learning outcomes and retention by tailoring content to individual needs; Helps educators make informed decisions through EDM-driven analytics; Provides a scalable AI-powered model for adaptive e-learning.</t>
+  </si>
+  <si>
+    <t>Implementation complexity—requires advanced AI and EDM integration; Scalability concerns for adapting AGLS to diverse subjects; Potential data privacy issues in tracking student behavior; Effectiveness depends on the quality of gamification design; Requires educator training to leverage AI-driven adaptive learning effectively.</t>
+  </si>
+  <si>
+    <t>Evaluates the Problem-Based Gamification Learning (PBGL) model integrated with AI via the ChatGPT API; Uses an experimental design with 240 students from Timor Leste and Indonesia learning Python programming; Compares control and experimental groups, showing a mean critical thinking score improvement of 23.57 vs. 9.04 points; Assesses content validity (CVR &gt; 0.75), construct validity (significant correlation), and test-retest reliability (Pearson r = 0.960); Identifies technical challenges in AI integration, automated feedback, and test fairness.</t>
+  </si>
+  <si>
+    <t>Enhances critical thinking skills through AI-driven problem-based gamification; Provides automated feedback and personalized learning support via AI; Improves motivation and engagement in programming education; Contributes to AI-supported digital learning curriculum design; Demonstrates practical applications of AI in adaptive and gamified learning models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex AI integration with ChatGPT API requires technical expertise; Ensuring fairness and consistency in AI-generated feedback remains a challenge; Scalability concerns for broader educational implementation; Effectiveness may vary across different subjects and student demographics; Teacher training needed to maximize AI’s benefits in gamified learning.
+</t>
+  </si>
+  <si>
+    <t>Reviews the impact of AI in education across administration, instruction, and learning; Uses a qualitative research approach based on literature review; Examines AI’s evolution from computer-based systems to web-based intelligent education platforms and humanoid robots; Highlights AI’s role in grading, curriculum customization, and adaptive learning; Discusses AI’s ability to enhance efficiency in instructional and administrative tasks.</t>
+  </si>
+  <si>
+    <t>Improves teaching efficiency by automating administrative tasks; Enables personalized and adaptive learning experiences through AI-driven curriculum adjustments; Enhances student engagement and retention via customized content; Supports instructors in grading and feedback processes; Facilitates innovative teaching methods using AI-powered tools like chatbots and humanoid robots.</t>
+  </si>
+  <si>
+    <t>Potential over-reliance on AI may reduce human instructor engagement; Ethical concerns and data privacy issues in AI-driven education; Equity and accessibility challenges in AI adoption across different institutions; Lack of standardized frameworks for AI integration in education; Teacher training required to effectively implement AI-enhanced instruction.</t>
+  </si>
+  <si>
+    <t>Investigates the acquisition of English vowel sounds at the nursery level using gamification; Implements the Sound-Bingo strategy for vowel sound recognition; Applies Mathew Nudds and Casey Callaghan’s ‘Theory of Auditory Perception’ as a theoretical framework; Uses a purposive sampling technique with two groups of 25 students each (experimental vs. control); Measures learning outcomes through an achievement test; Explores how gamification impacts engagement, motivation, and learning effectiveness.</t>
+  </si>
+  <si>
+    <t>Enhances early phonetic awareness and vowel sound recognition; Increases motivation and engagement in language learning through gamification; Provides empirical evidence of gamification’s role in improving learning execution; Supports structured game-based learning strategies for young learners; Encourages a positive attitude toward language acquisition.</t>
+  </si>
+  <si>
+    <t>Small sample size (50 students) limits generalizability; Long-term effects on language retention remain unclear; Gamification’s effectiveness may vary depending on learner differences; Potential bias in purposive sampling; Further research needed on diverse gamification techniques in phonics instruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigates the effect of gamification (points and badges) on emotional engagement and problem-solving skills in online management education; Uses an experimental pre-test/post-test design with 68 participants; Analyzes the mediating role of emotional engagement in gamified learning; Evaluates learner satisfaction and its impact on engagement; Provides design implications for effective online training programs.
+</t>
+  </si>
+  <si>
+    <t>Supports emotional engagement in online management training; Encourages active learning and motivation through gamification; Identifies key factors influencing problem-solving skills development; Helps educators optimize gamification design for better learning outcomes; Offers insights for enhancing online learning environments in management education.</t>
+  </si>
+  <si>
+    <t>Points and badges alone do not directly improve problem-solving skills; Small sample size (68 participants) may limit generalizability; Variability in learner response to gamification elements; Long-term effects on problem-solving and engagement require further study; Gamification design must be carefully structured to maximize learning benefits.</t>
+  </si>
+  <si>
+    <t>Develops a new conceptual model of AI-enhanced learning for college students; Examines the role of AI capabilities, self-efficacy, learning motivation, and critical thinking awareness; Uses resource-based theory (RBT) to view universities as AI-driven entities; Collects primary data from 637 students and analyzes it with structural equation modeling; Finds that AI capabilities indirectly enhance critical thinking awareness via self-efficacy and motivation, but direct effects on critical thinking are not significant.</t>
+  </si>
+  <si>
+    <t>Highlights how AI can reshape cognitive learning processes; Emphasizes the mediating role of self-efficacy and motivation in fostering critical thinking; Provides theoretical insights for integrating AI into higher education; Helps universities strategically implement AI to enhance student learning; Expands AI education research from a technical to a pedagogical perspective.</t>
+  </si>
+  <si>
+    <t>AI’s direct impact on critical thinking remains unclear; Effectiveness depends on students' self-efficacy and motivation levels; Findings may not generalize beyond the surveyed student population; Requires institutional support for optimal AI integration; Long-term effects of AI on cognitive development need further study.</t>
+  </si>
+  <si>
+    <t>Explores AI integration in ESL education through innovative teaching methods and authentic materials; Discusses AI-powered gamification using tools like ChatGPT to enhance learning engagement; Highlights AI-driven content curation for selecting and organizing relevant language materials; Examines personalized learning experiences adapting to individual student needs; Emphasizes reflection and self-assessment to reinforce deeper learning.</t>
+  </si>
+  <si>
+    <t>Potential over-reliance on AI may reduce human interaction in language learning; AI-generated content quality and accuracy need careful monitoring; Access to AI tools may be limited due to technological disparities; Teacher training required to effectively integrate AI-powered ESL strategies; Long-term impact on language acquisition needs further empirical study.</t>
+  </si>
+  <si>
+    <t>Increases student engagement and motivation in ESL learning; Enhances critical thinking, retention, and application of key concepts; Provides personalized learning paths based on AI-driven analysis; Uses authentic materials to improve real-world language proficiency; Supports interactive and flexible learning environments.</t>
+  </si>
+  <si>
+    <t>Proposes a Hybrid Gamification and AI Tutoring Framework combining Artificial Intelligence (AI), Machine Learning (ML), and Adaptive Neuro-Fuzzy Inference System (ANFIS); Tracks student interactions, quiz scores, engagement patterns, and participation; Uses adaptive reward allocation to enhance motivation and engagement; Enables personalized learning support by identifying struggling and high-achieving students; Conducts a pilot implementation with 200 computer science students, demonstrating effectiveness.</t>
+  </si>
+  <si>
+    <t>Enhances student motivation and engagement through adaptive gamification; Provides personalized learning experiences based on data-driven insights; Helps educators identify and support students based on real-time performance tracking; Improves learning outcomes through AI-driven adaptive feedback; Bridges gamification, AI tutoring, and neuro-fuzzy logic for a comprehensive educational framework.</t>
+  </si>
+  <si>
+    <t>Complex implementation requiring advanced AI and ML integration; Scalability concerns across different subjects and educational levels; Potential data privacy issues in tracking student engagement; Teacher training required to effectively use and interpret AI-driven insights; Long-term impact on learning outcomes and motivation needs further research.</t>
+  </si>
+  <si>
+    <t>Provides a concise and structured guide to critical thinking and logical reasoning; Covers argument analysis, logical fallacies, and reasoning strategies; Introduces formal and informal logic for evaluating arguments; Emphasizes clarity, rationality, and sound judgment in reasoning; Includes practical exercises and real-world examples to enhance critical thinking skills.</t>
+  </si>
+  <si>
+    <t>Helps students develop logical reasoning and argument evaluation skills; Enhances critical thinking in academic writing and everyday decision-making; Supports structured problem-solving and analytical thinking; Provides clear guidelines for constructing and assessing arguments; Useful for students, educators, and professionals seeking to improve reasoning abilities.</t>
+  </si>
+  <si>
+    <t>May require supplementary materials for deeper exploration of formal logic; Focuses on Western philosophical traditions, which may not cover all perspectives; Some abstract concepts may be challenging for beginners without practical application; Limited discussion on modern AI-driven reasoning models; Effectiveness depends on active engagement with exercises and real-world applications.</t>
+  </si>
+  <si>
+    <t>Explores Bloom's Taxonomy as a metacognitive framework for student-centered management education; Defines six levels of cognitive achievement based on observed student behavior; Surveys the use of Bloom’s Taxonomy in general and management education; Provides empirical evaluation of its impact on student achievement; Discusses strategies for empowering management students as self-directed learners.</t>
+  </si>
+  <si>
+    <t>Enhances critical thinking and cognitive development in management education; Supports scaffolding techniques for structured learning progression; Encourages self-responsibility and active learning among students; Provides a practical framework for designing assessments and instructional strategies; Helps educators tailor learning experiences to different cognitive skill levels.</t>
+  </si>
+  <si>
+    <t>Effectiveness depends on implementation—requires structured alignment with teaching methods; May not fully capture real-world problem-solving in management contexts; Some students may struggle with higher-order cognitive tasks without additional support; Limited empirical evidence on long-term impact in management education; Requires educator training to apply Bloom’s Taxonomy effectively.</t>
+  </si>
+  <si>
+    <t>Introduces Bloom’s Taxonomy, a hierarchical classification of cognitive skills; Defines six levels of learning objectives: Knowledge, Comprehension, Application, Analysis, Synthesis, and Evaluation; Serves as a framework for curriculum design, assessment, and instructional planning; Emphasizes progression from lower-order to higher-order thinking skills; Forms the foundation for later educational frameworks, including the revised taxonomy by Anderson &amp; Krathwohl (2001).</t>
+  </si>
+  <si>
+    <t>Provides a structured approach to designing learning objectives; Enhances critical thinking and cognitive skill development; Helps educators align teaching methods with assessment strategies; Supports scaffolding and differentiated instruction; Widely used in lesson planning, assessment design, and education research.</t>
+  </si>
+  <si>
+    <t>Focuses primarily on cognitive skills, with less emphasis on affective and psychomotor domains; Hierarchical structure may oversimplify learning processes; Some skills overlap, making strict categorization difficult; Needs adaptation for modern digital and AI-driven education; Requires teacher training for effective implementation.</t>
+  </si>
+  <si>
+    <t>Investigates how to assess critical thinking as a skill and learning outcome in business education; Highlights ambiguity in critical thinking assessment methods; Empirically evaluates students' critical thinking development throughout a business program; Uses multiple measures to assess critical thinking in different learning settings; Examines how critical thinking improves over time in business students.</t>
+  </si>
+  <si>
+    <t>Provides empirical insights into measuring critical thinking in business education; Helps educators identify effective assessment tools for student learning outcomes; Supports curriculum development by tracking critical thinking progress; Aligns with employer expectations of business graduates' analytical skills; Encourages evidence-based approaches to teaching critical thinking.</t>
+  </si>
+  <si>
+    <t>Ambiguity in defining and measuring critical thinking across disciplines; Variability in student progress based on instructional methods; Potential subjectivity in assessment tools used; Need for long-term studies to validate critical thinking improvements; Requires faculty training for consistent and effective evaluation.</t>
+  </si>
+  <si>
+    <t>Investigates gamification’s impact on knowledge retention using an action research approach; Conducts a longitudinal study with 617 secondary and tertiary students over two years; Compares gamified and non-gamified workshop designs, refining them over time; Demonstrates gamification’s positive effect on knowledge retention, exceeding benchmark values; Examines moderating effects of gender and age, finding no gender effect and mixed age-related results.</t>
+  </si>
+  <si>
+    <t>Enhances long-term knowledge retention through gamified learning; Provides empirical evidence supporting gamification in education; Supports continuous improvement of teaching strategies via iterative refinements; Encourages engagement and motivation in students; Demonstrates gamification’s effectiveness across different education levels.</t>
+  </si>
+  <si>
+    <t>Mixed findings on age-related effects suggest need for further research; Long-term sustainability of engagement remains uncertain; Potential novelty effects—gamification’s impact may decrease over time; Effectiveness depends on workshop design and implementation quality; Requires teacher training to integrate gamification effectively.</t>
+  </si>
+  <si>
+    <t>Investigates team-based gamified learning in an online environment; Examines students' attitudes toward gamification, collaboration, and competition; Uses game elements such as challenges, points, peer feedback, and inter-team competition; Collects qualitative data from pre- and post-surveys and participant reflections; Identifies key factors influencing positive and negative experiences with gamified learning.</t>
+  </si>
+  <si>
+    <t>Enhances motivation, engagement, and enjoyment in online learning; Supports collaborative learning and teamwork through gamification; Provides practical insights for designing effective online gamified learning experiences; Encourages student autonomy through choice and freedom in learning activities; Demonstrates gamification’s potential to improve online learning interactions.</t>
+  </si>
+  <si>
+    <t>Inter-team competition received mixed reactions—some found it motivating, others did not; Effectiveness depends on teamwork dynamics—negative experiences were linked to poor collaboration; Qualitative nature of the study limits generalizability; Long-term impact on learning outcomes remains uncertain; Requires thoughtful design to balance competition, collaboration, and engagement.</t>
+  </si>
+  <si>
+    <t>Investigates the use of ChatGPT to enhance critical thinking skills in higher education; Conducted at Georgia Gwinnett College (GGC) in introductory chemistry courses; Implements a three-stage ChatGPT-based activity: account setup and orientation, essay creation, and output revision/validation; Evaluates students' confidence in questioning, analysis, and comprehension; Identifies both benefits and challenges of AI integration in education.</t>
+  </si>
+  <si>
+    <t>Encourages diverse perspectives and analytical thinking through AI interactions; Enhances students' ability to ask insightful questions and validate information; Improves engagement with complex concepts in chemistry education; Supports AI-assisted learning as a tool for developing cognitive skills; Increases student confidence in utilizing AI for academic growth.</t>
+  </si>
+  <si>
+    <t>Difficulties in validating AI-generated content due to source credibility concerns; Low-quality student comments suggest need for structured guidance; Requires educator training for effective AI integration; Privacy and security considerations must be addressed; Long-term impact on critical thinking skills needs further study.</t>
+  </si>
+  <si>
+    <t>Investigates the impact of AI tools on student performance in higher education; Examines AI applications such as personalized learning systems, intelligent tutoring systems, and automated assessments; Conducts a literature review and empirical research to assess AI’s role in learning outcomes, engagement, and academic achievement; Highlights benefits, challenges, and ethical considerations in AI adoption; Emphasizes the need for teacher training and effective implementation strategies.</t>
+  </si>
+  <si>
+    <t>Enhances student engagement and personalized learning experiences; Supports adaptive learning through AI-driven tutoring and assessment tools; Improves academic performance by optimizing learning pathways; Helps educators identify student learning gaps and provide targeted support; Contributes to AI-driven innovation in higher education.</t>
+  </si>
+  <si>
+    <t>Ethical concerns related to data privacy and AI bias; Teacher training and institutional readiness are essential for effective implementation; Over-reliance on AI may reduce human interaction in education; Access and equity issues in AI adoption across institutions; Long-term effects on student learning outcomes require further study.</t>
+  </si>
+  <si>
+    <t>Proposes a framework for developing higher-order thinking skills (problem-solving, critical thinking, creative thinking, and decision-making) in engineering and humanities; Identifies common and supporting thinking skills from literature; Develops learning tools (mind maps, flowcharts) and assignments (homework, quizzes) to enhance skill acquisition; Uses a blended learning approach integrating interactive lectures and skills-based assignments; Initial assessments show a 20% improvement in student learning outcomes compared to traditional course delivery.</t>
+  </si>
+  <si>
+    <t>Enhances students' ability to apply complex thinking processes; Encourages active learning through structured assignments and interactive tools; Supports practical application of acquired knowledge across disciplines; Provides a scalable model for integrating higher-order thinking skills into curricula; Demonstrates measurable improvements in student learning outcomes.</t>
+  </si>
+  <si>
+    <t>Implementation complexity—requires careful curriculum design and educator training; Variability in student engagement with blended learning tools; Scalability concerns—requires adaptation for different education levels and disciplines; Long-term impact on critical thinking and problem-solving needs further validation; Potential resistance from educators unfamiliar with active learning methodologies.</t>
+  </si>
+  <si>
+    <t>Conducts a systematic literature review (2020–2023) on AI teaching and learning in higher education; Analyzes pedagogical outcomes, challenges, and limitations of AI education; Examines post-COVID AI pedagogy, particularly in the era of public access to ChatGPT; Reviews 12 studies using pre-and post-design self-reported surveys; Identifies lack of a universal framework for AI literacy, learning objectives, and assessment metrics.</t>
+  </si>
+  <si>
+    <t>Provides insights into current AI education practices and pedagogical strategies; Highlights gaps in AI literacy frameworks for curriculum development; Encourages standardized assessment of AI learning outcomes; Supports discussions on best practices for AI teaching in higher education; Helps educators align AI learning objectives with cognitive skill development.</t>
+  </si>
+  <si>
+    <t>Lack of consensus on AI literacy definitions and assessment methods; Inconsistencies in learning objectives and pedagogical approaches; Over-reliance on self-reported surveys, which may introduce bias; Need for empirical validation of AI teaching strategies; Further research required to develop universally accepted AI pedagogy frameworks.</t>
+  </si>
+  <si>
+    <t>Investigates the effect of critical literacy-based literature reading on first-year university students' critical thinking skills; Uses a quasi-experimental pretest–posttest control group design; Conducted with 36 students (ages 16–18) from the Department of Indonesian Language and Literature Teaching; Experimental group received critical literacy-based instruction, while the control group followed conventional methods; Uses Facione and Gittens' critical thinking model for assessment; Data analyzed using SPSS (Windows v25).</t>
+  </si>
+  <si>
+    <t>Enhances critical thinking skills through literature-based critical literacy; Develops critical awareness of social, political, and cultural issues; Encourages higher-order cognitive engagement with literary texts; Provides empirical evidence for integrating critical literacy into literature education; Supports future research on cognitive abilities, educational backgrounds, and reading habits.</t>
+  </si>
+  <si>
+    <t>Non-random sampling may limit generalizability; Small sample size (36 students) requires further validation; Limited focus on long-term critical thinking development; Potential influence of prior literacy skills on results; Future research needed on gender differences and broader educational contexts.</t>
+  </si>
+  <si>
+    <t>Examines assessment practices for critical thinking in business education; Analyzes 100 group reports (2,000 words each) from a master's-level business analysis course; Uses a critical thinking assessment rubric and a content analysis framework on 49 reports; Identifies differences in how students demonstrate critical thinking; Develops a framework to assess critical thinking dispositions and abilities; Provides practical solutions for improving critical thinking assessment.</t>
+  </si>
+  <si>
+    <t>Enhances understanding of how critical thinking is demonstrated in business education; Provides a structured framework for evaluating critical thinking in student work; Helps business educators refine assessment strategies to foster critical thinking; Offers practical recommendations for improving instructional approaches; Supports the alignment of assessment with critical thinking development goals.</t>
+  </si>
+  <si>
+    <t>Assessment methods may not fully capture students’ critical thinking skills; Variability in student responses makes standardization challenging; Limited generalizability beyond business education; Long-term impact of assessment practices on critical thinking development requires further research; Educator training needed to apply the assessment framework effectively.</t>
+  </si>
+  <si>
+    <t>Investigates the impact of AI-powered personalized learning tools on student performance in e-learning; Conducted at Ajman University with pre-service student teachers in an Educational Technology course; Uses a quasi-experimental design with 55 students in the experimental group (AI-enhanced Moodle) and 55 in the control group (traditional instruction); Assesses academic performance, knowledge retention, critical thinking, motivation, and engagement using pre- and post-tests, rubrics, and questionnaires; Finds statistically significant improvements in the experimental group.</t>
+  </si>
+  <si>
+    <t>Enhances academic performance and knowledge retention through AI-driven personalization; Improves critical thinking, motivation, and engagement in e-learning environments; Supports adaptive learning, intelligent tutoring, and automated grading to optimize instruction; Reduces educator workload while providing customized student learning paths; Demonstrates AI’s potential for creating inclusive and effective learning environments.</t>
+  </si>
+  <si>
+    <t>Scalability concerns—AI implementation may require institutional investment; Educator training needed to integrate AI tools effectively; Potential dependence on AI may reduce student autonomy in learning; Long-term effects on student learning require further study; Ethical and data privacy concerns in AI-driven personalized learning.</t>
+  </si>
+  <si>
+    <t>Compares the effectiveness of Duolingo and ChatGPT in fostering motivation, enjoyment, critical thinking (CT), and autonomy in English as a Foreign Language (EFL) learners in China; Uses a true-experimental design with three groups: Duolingo (n=81), ChatGPT (n=81), and a control group (n=82); Assesses learning outcomes using one-way MANOVA statistical analysis; Finds both AI-driven platforms significantly improve motivation, enjoyment, CT, and autonomy compared to traditional methods; Reports no significant differences between Duolingo and ChatGPT, suggesting both are equally effective.</t>
+  </si>
+  <si>
+    <t>Supports AI-driven personalized learning for EFL students; Enhances motivation, engagement, and cognitive skills in language learning; Demonstrates real-time feedback and adaptive learning capabilities of AI-powered platforms; Encourages learner autonomy by offering self-paced, interactive learning experiences; Provides empirical evidence for integrating AI into second language education.</t>
+  </si>
+  <si>
+    <t>No long-term evaluation of AI’s sustained impact on language proficiency; Differences in learning styles may affect individual platform effectiveness; Potential reliance on AI tools over traditional learning strategies; Control group limitations—lacks clarity on alternative teaching methods used; Further research needed on AI’s role in advanced language acquisition and speaking proficiency.</t>
+  </si>
+  <si>
+    <t>Investigates the transformative potential of Generative AI (GenAI), particularly ChatGPT, in English language education in Iran; Uses qualitative research methods (focus groups, semi-structured interviews, reflective essays) with 23 English language teachers; Identifies five key themes: accessible learning materials, personalized learning, ideological influences, technological barriers, and global integration; Explores GenAI’s role in cross-cultural communication and professional development; Highlights GenAI’s ability to bridge digital literacy gaps and promote inclusive education.</t>
+  </si>
+  <si>
+    <t>Provides diverse and up-to-date learning materials tailored to individual learners; Enhances critical thinking, open-mindedness, and cross-cultural communication; Supports personalized professional development for teachers; Helps bridge technological and ideological barriers in education; Promotes inclusive, accessible, and democratized language learning.</t>
+  </si>
+  <si>
+    <t>Digital divide and infrastructure limitations may affect AI accessibility; Ideological concerns surrounding AI-generated content in specific educational contexts; Teacher readiness and digital literacy disparities may hinder effective integration; Potential biases in AI-generated materials require monitoring; Long-term impact on student outcomes needs further empirical research.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposes and tests a five-phase framework (familiarizing, conceptualizing, inquiring, evaluating, synthesizing) to enhance critical thinking (CrT) in synthesizing AI-generated texts; Grounded in multiple theoretical foundations; Conducts two experimental studies with postgraduate students (Study 1: n=179, Study 2: n=125) using pretest-posttest designs; Compares the proposed framework with self-regulated learning and non-structured frameworks; Assesses CrT skill development and contextual applicability.
+</t>
+  </si>
+  <si>
+    <t>Strengthens students’ ability to critically assess and integrate AI-generated content; Provides structured guidance for AI-augmented academic tasks; Encourages higher-order thinking and reduces passive reliance on GenAI tools; Helps educators design CrT-focused curricula for an AI-driven educational landscape; Promotes academic integrity, analytical rigor, and critical literacy.</t>
+  </si>
+  <si>
+    <t>Effectiveness varies with personality traits, suggesting the need for individualized support; Does not significantly enhance self-regulated learning compared to other methods; Framework implementation requires intensive CrT training; Educator familiarity with AI and instructional design is crucial; Ongoing refinement needed for broader scalability and adaptability.</t>
+  </si>
+  <si>
+    <t>Explores how Artificial Intelligence (AI) and emerging technologies (e.g., robot tutors, VR, AR, ITS) can influence human behavioral development and skill acquisition in education; Draws on the DigComp framework and 21st-century skills agenda in Europe; Emphasizes the transition from knowledge-based to competence-based education; Focuses on primary education as an under-researched area for AI integration; Highlights the role of AI in supporting personalized learning, creativity, critical thinking, problem-solving, and computational thinking.</t>
+  </si>
+  <si>
+    <t>Promotes competency-based learning models aligned with lifelong learning goals
+Positions AI as a supportive tool for fostering higher-order thinking skills
+Encourages tailored education pathways through AI-enhanced personalization
+Offers interdisciplinary perspectives on how new technologies influence behavioral and cognitive development
+Provides a theoretical foundation for future research and curriculum innovation</t>
+  </si>
+  <si>
+    <t>Inconsistent implementation of 21st-century skills across countries and regions
+Limited empirical research in primary education contexts
+Integration of advanced technologies (AI, VR, AR) may face infrastructure and access barriers
+Educator readiness and training are essential but may be lacking
+Need for ethical consideration and pedagogical alignment in AI-driven learning environments.</t>
+  </si>
+  <si>
+    <t>Investigates the structural relationship between motivation (MO), critical thinking (CT), and creativity (CR) in Business English learners in AI-integrated vocational education; Conducted with 153 students from higher vocational colleges in Shanxi, China; Applies Cognitive Flexibility Theory and uses structural equation modeling (SEM) to test relationships and mediation effects; Finds that critical thinking fully mediates the relationship between motivation and creativity; Highlights the importance of multi-disciplinary education in preparing students for the AI-driven workforce.</t>
+  </si>
+  <si>
+    <t>Emphasizes critical thinking as a foundational skill linking motivation to creative output
+Supports curriculum design that targets CT to boost both motivation and creativity
+Validates MO–CT–CR framework for use in Business English and potentially broader contexts
+Provides evidence-based insights for enhancing AI-era vocational education
+Encourages integration of sustainable, transferable skills into higher education programs</t>
+  </si>
+  <si>
+    <t>Non-experimental design limits causal inference
+Findings are context-specific (Chinese vocational colleges) and may need adaptation for broader generalization
+Limited to Business English learners—other disciplines may show different dynamics
+Does not explore the influence of AI tools directly, though AI is contextually relevant
+Further research needed to explore how specific AI interventions affect the MO–CT–CR relationship.</t>
+  </si>
+  <si>
+    <t>Investigates how AI-driven educational tools influence critical thinking disposition (CTD) among Malaysian university students; Analyzes key factors using Technology Acceptance Model (TAM) and Self-Determination Theory (SDT); Factors include AI literacy (AIL), perceived ease of use (PEOU), perceived usefulness (PU), and motivation (MO); Employs a cross-sectional survey design with 483 participants and analyzes data using Partial Least Squares Structural Equation Modeling (PLS-SEM).</t>
+  </si>
+  <si>
+    <t>Identifies motivation as the strongest predictor of critical thinking disposition
+Emphasizes AI literacy as a foundation for meaningful AI tool engagement
+Supports the integration of AI concepts into curricula to strengthen CT skills
+Provides insights for AI tool designers to create environments that encourage deeper cognitive processing
+Promotes balanced educational technologies that are both usable and cognitively demanding</t>
+  </si>
+  <si>
+    <t>Perceived ease of use (PEOU) negatively influenced CTD, suggesting the risk of shallow engagement with overly simple tools
+Cross-sectional design limits causal inference
+Findings are context-specific to Malaysia; further validation in other cultures is needed
+Lacks qualitative depth—future research should incorporate interviews or focus groups
+Design of AI tools must carefully balance usability and critical engagement potential.</t>
+  </si>
+  <si>
+    <t>Investigates the perceived impact of generative AI (e.g., ChatGPT) on traditional assessment practices in higher education.
+Conducts a cross-national survey involving 680 students and 87 educators from Australia, Cyprus, and the United States.
+Focuses on assessments like essay writing and coding, which are seen as most affected by AI tools.
+Uses a framework with six dimensions of assessment quality to evaluate perceptions.
+Compares educator and student perspectives, emphasizing differences in views regarding creativity, critical thinking, and AI integration.</t>
+  </si>
+  <si>
+    <t>Promotes reform in assessment design to align with the realities of AI-enhanced learning.
+Encourages higher-order thinking and authentic learning tasks over output-focused evaluations.
+Highlights the need for inclusive dialogue between educators and students in shaping future assessments.
+Provides insights for creating AI-resilient, critical-thinking-driven assessment models.
+Helps institutions rethink learning goals in the age of generative AI.</t>
+  </si>
+  <si>
+    <t>Mixed student reactions reflect uncertainty about creativity and learning integrity in AI-integrated tasks.
+Moderate AI use among participants may not reflect full-scale adoption scenarios.
+Differences in national education systems may limit generalizability.
+The study relies on self-reported perceptions, which may not fully capture behavioral outcomes.
+Ongoing evolution of AI tools necessitates continuous reassessment of educational practices.</t>
+  </si>
+  <si>
+    <t>Based on a seven-month ethnographic study of 38 preschool children (ages 1–5) interacting with a robot in two groups.
+Combines play analysis (Hughes’s 16 types of play) and qualitative interviews with 3–5-year-olds.
+Explores how children incorporate robots into their play and their imaginaries of future AI and robotics.
+Reveals that children have surprisingly well-developed knowledge and critical perspectives on robots and AI.
+Advocates for the inclusion of children’s voices in educational and societal discussions on emerging technologies.</t>
+  </si>
+  <si>
+    <t>Promotes early AI and robotics literacy through play-based learning.
+Enhances social, imaginative, and cognitive development by integrating robots into diverse types of play.
+Offers insights for curriculum design that acknowledges children’s agency, understanding, and critical thinking about AI.
+Encourages inclusive education practices that value young learners' perspectives on technology.
+Supports child-robot interaction (CRI) as a research area in early childhood education.</t>
+  </si>
+  <si>
+    <t>Small sample size (n = 6 for interviews) limits generalizability of children’s conceptual insights.
+Young age range may constrain depth of verbal expression in some children.
+Findings are highly context-specific (cultural, institutional setting).
+Requires further research to explore long-term impacts of early interaction with AI and robotics.
+Implementation in educational settings may need careful ethical consideration and teacher support.</t>
+  </si>
+  <si>
+    <t>Investigates the impact of ChatGPT usage on student engagement, critical thinking abilities, and academic achievement among university students in Ajman, UAE.
+Grounded in Constructivist Learning Theory and employs a cross-sectional survey design with 353 participants.
+Data analyzed using Partial Least Squares Structural Equation Modeling (PLS-SEM).
+Demonstrates that ChatGPT has a significant positive effect on all three key educational outcomes.
+Highlights ChatGPT's role in enhancing effort, ambition, and motivation in academic tasks.</t>
+  </si>
+  <si>
+    <t>Boosts student engagement by offering interactive, accessible support throughout the learning process.
+Supports the development of critical thinking skills through exposure to diverse perspectives and problem-solving strategies.
+Positively influences academic achievement by improving understanding and encouraging active learning.
+Encourages self-directed learning and academic confidence in AI-integrated environments.
+Validates AI as a valuable tool for enhancing educational outcomes in higher education settings.</t>
+  </si>
+  <si>
+    <t>Cross-sectional design limits the ability to infer causality or long-term effects.
+Findings are context-specific to Emirati university students and may not be generalizable across regions or disciplines.
+Potential over-reliance on AI for academic support might affect independent reasoning if not properly guided.
+Calls for further research using longitudinal and mixed-method approaches to deepen insights.
+Requires ethical guidelines and training to ensure responsible and effective integration of AI tools like ChatGPT in education.</t>
+  </si>
+  <si>
+    <t>Investigates the combined and comparative effects of activity-based learning and ChatGPT usage on students’ academic performance.
+Analyzes student outcomes from traditional vs. activity-based methods, and assesses ChatGPT’s role via surveys and educational trials.
+Evaluates engagement, motivation, critical thinking, and personalized feedback through interactive learning environments.
+Highlights ChatGPT’s potential for individualized support and concept clarification.</t>
+  </si>
+  <si>
+    <t>Activity-based learning boosts engagement, critical thinking, motivation, and academic achievement through hands-on participation.
+ChatGPT enhances learning via personalized feedback, accessible explanations, and interactive dialogue, especially for complex subjects.
+Fosters student-centered, active learning environments that promote deeper understanding.
+Encourages exploration and independent learning using AI as a supportive tool.
+Demonstrates potential for innovative instructional strategies that integrate technology effectively.</t>
+  </si>
+  <si>
+    <t>Ethical concerns with ChatGPT use (e.g., plagiarism, misinformation) must be addressed.
+Requires digital literacy for students and proper guidance for optimal use.
+Educator training needed to blend AI tools with activity-based pedagogies effectively.
+Long-term impact and student dependency on AI remain areas for future investigation.
+Comparative study may lack generalizability if limited in scope or context.</t>
+  </si>
+  <si>
+    <t>Concerns over academic integrity and AI misuse (e.g., overreliance, plagiarism) remain high among students.
+The study is limited to a UAE context, which may affect global generalizability.
+Qualitative insights are not deeply explored, leaving room for follow-up studies using interviews or focus groups.
+Ongoing technological developments in AI may quickly shift student perceptions and ethical considerations.
+Highlights the need for practical institutional guidelines and educator training on AI integration in academia.</t>
+  </si>
+  <si>
+    <t>Recognizes ChatGPT as a helpful educational tool in enhancing access to information, productivity, and academic support.
+Contributes to the development of balanced AI-use policies by providing student-centered insights.
+Highlights the need for ethical integration of AI tools in higher education to preserve originality and critical thinking.
+Encourages awareness-building and dialogue among educators and students regarding responsible AI use.</t>
+  </si>
+  <si>
+    <t>Examines students' views, concerns, and perceived ethics regarding ChatGPT usage in higher education in the United Arab Emirates (UAE).
+Survey conducted with 388 university students in Al Ain using Yamane’s formula for sample size determination.
+Uses path analysis to test three hypotheses: impact of ChatGPT on student views, concerns, and perceived ethics.
+Confirms significant effects of ChatGPT usage on all three dimensions.</t>
+  </si>
+  <si>
+    <t>Limited number of studies and lack of consistency in research designs and outcomes.
+Long-term developmental impacts of AI use in early childhood remain unclear.
+Concerns around data privacy, screen time, and ethical use of AI with young children.
+Requires educator training and curriculum redesign for responsible and meaningful AI integration.
+Calls for more interdisciplinary, longitudinal, and child-centered research in diverse educational contexts.</t>
+  </si>
+  <si>
+    <t>Demonstrates that AI can foster creativity, computational thinking, emotion regulation, collaboration, and early literacy in young children.
+Provides early exposure to STEM concepts, helping children build foundational knowledge of AI and digital technologies.
+Encourages exploratory and inquiry-based learning through interactive AI-enhanced experiences.
+Offers educators insights into designing developmentally appropriate, AI-integrated learning environments.
+Supports early digital competence and AI literacy, preparing children for a technology-driven future.</t>
+  </si>
+  <si>
+    <t>Presents a scoping review of 17 studies (1995–2021) on the use of Artificial Intelligence (AI) in Early Childhood Education (ECE) across multiple countries.
+Synthesizes research findings on AI tools, learning activities, pedagogical integration, and impacts on young children.
+Highlights how AI supports learning in areas such as machine learning, computer science, robotics, and foundational literacy and socio-emotional skills.
+Identifies gaps in current research, particularly the limited number and methodological variation of existing studies.</t>
+  </si>
+  <si>
+    <t>Limited accuracy in evaluating secondary or nuanced critical thinking dimensions, requiring human oversight.
+Dependence on pre-existing coding frameworks—ChatGPT does not yet independently interpret novel evaluation schemes.
+Risk of over-reliance on AI judgment in educational assessment contexts.
+Further refinement needed for AI tools to support personalized critical thinking development.
+Calls for ethical considerations and transparency in automated evaluation processes.</t>
+  </si>
+  <si>
+    <t>Demonstrates potential for automated, scalable assessment of critical thinking in written feedback.
+Offers time-saving support for educators in evaluating large volumes of student-generated content.
+Promotes real-time formative assessment and feedback in online learning environments.
+Encourages development of AI-enhanced tools for academic writing and critical thinking instruction.
+Supports data-informed instructional design based on consistent peer feedback analysis.</t>
+  </si>
+  <si>
+    <t>Investigates ChatGPT’s ability to assess students’ critical thinking skills through analysis of online peer feedback.
+Compares ChatGPT-generated evaluations with manual coding using established critical thinking classification frameworks.
+Assesses performance using precision, recall, F1 score, and confusion matrices.
+Analyzes ChatGPT’s strengths in recognizing high-level critical thinking dimensions and limitations in evaluating fine-grained sub-skills.
+Explores the relationship between ChatGPT’s assessments and actual student critical thinking levels, finding no bias based on student ability.</t>
+  </si>
+  <si>
+    <t>Explores the interconnection between Critical Thinking (CT) and Artificial Intelligence (AI) in the context of dental education.
+Emphasizes CT as a foundational clinical skill for effective patient care and decision-making.
+Reviews current deficiencies in analytical reasoning within dental training programs.
+Discusses how emerging AI technologies can support the development and application of CT in clinical and educational settings.
+Proposes that CT and AI function as dual pillars for preparing future dental professionals.</t>
+  </si>
+  <si>
+    <t>Enhances diagnostic accuracy and decision-making by combining CT frameworks with AI-powered tools.
+Supports evidence-based learning through AI-driven case simulations and adaptive feedback.
+Promotes lifelong learning and reflective practice in clinical education.
+Encourages integration of AI literacy into dental curricula, fostering future-ready professionals.
+Strengthens clinical judgment by positioning AI as a complement, not a replacement, to critical human reasoning.</t>
+  </si>
+  <si>
+    <t>Lack of standardized approaches for integrating CT and AI in dental education.
+Risk of over-reliance on AI, potentially diminishing students’ independent reasoning.
+Faculty development and curricular redesign are needed to embed these competencies effectively.
+Ethical concerns and data privacy must be addressed when incorporating AI technologies.
+Limited empirical research on the long-term impact of AI-assisted CT training in dentistry.</t>
+  </si>
+  <si>
+    <t>Scalability may be difficult due to the resource-intensive nature of hands-on and project-based learning.
+Faculty training is required to effectively implement DT and leverage generative AI tools in instructional design.
+Institutional resistance may arise due to deviation from traditional curriculum structures.
+Ethical considerations around AI use in curriculum development and student support need attention.
+Empirical validation of long-term impacts on professional practice and learning outcomes is still needed.</t>
+  </si>
+  <si>
+    <t>Promotes transformative learning by aligning teaching activities, assessments, and outcomes around authentic, real-world medical problems.
+Encourages creativity, collaboration, and critical thinking through Design Thinking methodologies.
+Integrates Generative AI to support instructional design and provide adaptive resources, feedback, and ideation support.
+Enables students to prototype solutions and engage with interdisciplinary teams, bridging medical knowledge with design innovation.
+Supports career development by fostering impact-driven learning and practice-based engagement.</t>
+  </si>
+  <si>
+    <t>Proposes a novel educational framework for medical curriculum design combining Design Thinking (DT), Constructive Alignment, and Generative AI.
+Developed and tested in a case study with first-year medical students at a Moroccan medical faculty.
+Framework aims to foster student-centered, innovation-driven learning experiences.
+Curriculum elements include lectures, hands-on workshops, and project-based learning with prototyping and real-world testing in hospital settings.
+Focuses on empowering students with creative problem-solving skills to address 21st-century healthcare challenges.</t>
+  </si>
+  <si>
+    <t>Case study involving 118 postgraduate management students at a UK business school examining their use of generative AI (e.g., ChatGPT) in assessments.
+Students wrote a 500-word reflection on how they used AI to support a 2,500-word essay.
+Analysis compares students' self-reported AI use with assessors' evaluations, using sensemaking theory as a lens.
+Finds students primarily used AI for writing support (e.g., paraphrasing, rephrasing) rather than critical thinking or deeper reflection.
+Only ~10% of students engaged in advanced levels of AI-supported critical sensemaking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides practical insights into current patterns of student AI use in academic writing.
+Highlights the need for developing AI-integrated critical thinking and academic literacy skills.
+Encourages reflection-based assignments to promote transparency and metacognition in AI use.
+Suggests institutional strategies for aligning AI use with assessment integrity and learning goals.
+Offers evidence-based recommendations for educators to support responsible and educationally valuable AI integration.
+</t>
+  </si>
+  <si>
+    <t>Reveals a gap between AI’s potential and how students are actually using it—mostly as a writing aid rather than a thinking tool.
+Suggests that higher education has not yet adapted fully to the pedagogical implications of generative AI.
+Limited student engagement with critical evaluation of AI-generated content highlights a need for explicit instruction.
+Findings may be discipline-specific and not easily generalizable beyond management education.
+Calls for educator training, curriculum redesign, and policy development to support meaningful AI use in assessments.</t>
+  </si>
+  <si>
+    <t>Requires sustained instructional design and technological support for effective implementation.
+Gamification elements may not transfer equally across disciplines or course types.
+Student novelty effect could influence initial motivation—long-term engagement still needs further study.
+Study conducted in a single context—generalizability to different educational systems may be limited.
+Need for careful balance of fun and pedagogy to maintain academic rigor while boosting engagement.</t>
+  </si>
+  <si>
+    <t>Gamified learning significantly outperformed both online and traditional learning across all performance metrics.
+Demonstrated highest gains in excellence rate—up to 130% (lab) and 125% (theory) over online learning.
+Boosts both intrinsic and extrinsic motivation, along with engagement and retention.
+Supports basic psychological needs (autonomy, competence, relatedness), contributing to a more enjoyable and fulfilling learning experience.
+Shows that gamification benefits both theoretical and practical (lab-based) components of a course.</t>
+  </si>
+  <si>
+    <t>Longitudinal quantitative study spanning 3 academic years (2020–2023) with 1001 higher education students.
+Compares online learning, traditional learning, and gamified learning in terms of learning outcomes and academic performance.
+Assesses performance across laboratory, theoretical, and overall course components, focusing on metrics such as success rate, excellence rate, average grade, retention rate, motivation, and engagement.
+Includes student feedback collected via a 20-item questionnaire exploring perceptions of learning experiences.</t>
+  </si>
+  <si>
+    <t>Effectiveness varies by context—discipline, activity type, and learner autonomy affect outcomes.
+Limited data on long-term effects of Gen-AI on critical thinking and deeper learning.
+Quality of AI-generated content and student ability to evaluate it are essential factors for effective use.
+Ethical concerns around academic integrity and plagiarism remain critical to address.
+Calls for more rigorous studies across diverse educational settings and with varied student populations.</t>
+  </si>
+  <si>
+    <t>Confirms that Gen-AI can meaningfully improve academic achievement in college settings.
+Supports independent, self-directed learning as an effective use case for Gen-AI tools.
+Encourages thoughtful integration of text-generating AI (e.g., ChatGPT) to support academic writing, concept understanding, and feedback.
+Offers evidence-based insights for educators and policymakers to inform AI-supported curriculum and assessment design.
+Suggests Gen-AI is especially effective in small-to-medium student groups, enabling more personalized academic support.</t>
+  </si>
+  <si>
+    <t>A meta-analysis of 28 articles (65 independent studies, N = 1909) examining whether Generative Artificial Intelligence (Gen-AI) improves college students' academic achievement.
+Reports a medium overall effect size (Hedges’s g = 0.533, p &lt; .05), indicating that Gen-AI significantly enhances academic performance.
+Investigates moderator variables: activity type, sample size, generated content, learning style, discipline, assessment tools, and intervention duration.
+Finds highest gains when Gen-AI generated text content, when sample sizes were 21–40, and with independent learning styles.
+Provides empirical and theoretical grounding for Gen-AI integration into higher education policy and practice.</t>
+  </si>
+  <si>
+    <t>Inconsistent learning outcomes across studies—impact may depend on context, subject, or design quality.
+Predominant reliance on external, generic tools limits deep curriculum integration and raises data privacy concerns.
+Lack of multimodal and adaptive chatbot systems reduces engagement potential.
+Limited institutional control and customization hinder alignment with specific learning goals.
+Calls for more rigorous, longitudinal, and discipline-specific studies to understand chatbot effectiveness and guide sustainable implementation.</t>
+  </si>
+  <si>
+    <t>Supports personalized learning by simulating real-time, interactive feedback and human-like conversation.
+Enhances motivation, cognitive engagement, and knowledge acquisition, especially in language learning and writing tasks.
+Provides a safe, low-pressure environment for experimentation and practice.
+Facilitates scalable student support, particularly in online or hybrid learning contexts.
+Enables gamification and multimodal learning designs, which can enrich user experience and improve outcomes.</t>
+  </si>
+  <si>
+    <t>Systematic review of 37 studies examining the use of AI-based chatbots in higher education, guided by activity theory.
+Explores the “who” (undergraduates as primary users), “why” (learning support, motivation, personalization), and “how” (implementation methods, design, use cases) of chatbot integration.
+Highlights current chatbot applications in academic support, writing assistance, speaking practice, and self-directed learning, mostly outside traditional classroom settings.
+Notes dominant use of third-party, unimodal chatbots rather than integrated, institutionally developed solutions.</t>
+  </si>
+  <si>
+    <t>This research introduces a holistic framework combining Gamification, Extended Reality (XR), Artificial Intelligence (AI), and the Internet of Things (IoT). It applies this integration to two domains: distance learning and autonomous vehicles. The study includes the development of innovative tools such as the Gamified Digital Simulator and Virtual LiDAR Simulator, and explores virtual environments as sources of synthetic data for AI training.</t>
+  </si>
+  <si>
+    <t>In distance learning, the framework enhances engagement through interactive, gamified XR experiences supported by IoT-triggered events. It promotes active, personalized, and collaborative learning. The tools offer immersive simulations, enabling deeper understanding and practical skills development in both theoretical and applied contexts.</t>
+  </si>
+  <si>
+    <t>Implementation requires advanced infrastructure, interdisciplinary collaboration, and educator training. Scalability and access to XR/IoT technologies may be limited in some contexts. Ethical considerations, data privacy, and the need for pedagogical validation remain important factors for future research and application.</t>
+  </si>
+  <si>
+    <t>This chapter explores the integration of AI, gamification, and immersive technologies in cybersecurity training. It focuses on how game elements (e.g., rewards, badges, storytelling) combined with AI enhance learning through interactivity, simulation, and real-time feedback. The use of VR/AR and adaptive systems creates dynamic, scenario-based training environments.</t>
+  </si>
+  <si>
+    <t>AI-powered gamification promotes active learning, skill retention, and engagement. Learners benefit from realistic threat simulations, personalized content, and adaptive pacing, which support deeper understanding and faster skill development in cybersecurity contexts.</t>
+  </si>
+  <si>
+    <t>Designers must balance education and entertainment, ensuring that gamified elements don’t distract from core learning goals. Challenges include technical complexity, high development costs, and the need for continuous updates to keep pace with evolving cyber threats and technologies.</t>
+  </si>
+  <si>
+    <t>Advocates for a case-based learning (CBL) approach using real-world AI applications in clinical practice to enhance AI literacy in medical education.
+Shifts focus from teaching technical programming skills to understanding and critically engaging with AI in context.
+Emphasizes practical, interdisciplinary learning that integrates ethical reflection, critical thinking, and clinical reasoning.
+Highlights AI's role not only as a tool but also as a catalyst for reflection and collaboration among healthcare professionals, technologists, and educators.</t>
+  </si>
+  <si>
+    <t>Enhances clinical reasoning by allowing students to compare their diagnostic thought processes with AI-generated suggestions.
+Promotes critical evaluation of AI outputs, fostering bias awareness and ethical sensitivity.
+Encourages interdisciplinary dialogue, supporting collaboration between medical, technical, and ethical domains.
+Offers a scalable, integrative method to embed AI concepts without sacrificing essential clinical content.
+Aligns with modern educational trends prioritizing experiential, reflective, and problem-oriented learning.</t>
+  </si>
+  <si>
+    <t>Requires well-developed AI case materials that are both pedagogically sound and clinically relevant.
+Faculty training and buy-in may be needed to successfully implement AI-enhanced case-based learning.
+Assessment of outcomes such as improved critical thinking or ethical awareness in AI contexts is still underexplored.
+Curriculum integration must be carefully balanced to avoid overwhelming learners with unfamiliar content.
+Long-term impact on clinical competence and AI readiness remains to be empirically validated.</t>
+  </si>
+  <si>
+    <t>This case study explores the use of system thinking as a method for designing and analyzing gamification. It highlights how students apply tools like causal loop diagrams, flowcharts, and system dynamics simulations to model and predict user behavior in gamified learning scenarios. The approach is grounded in problem-based and situated learning pedagogy.</t>
+  </si>
+  <si>
+    <t>System thinking helps learners understand complex interactions in gamification design and test assumptions through simulation. It supports deeper learning, critical analysis, and data-driven decision-making, making gamification development more structured and evidence-based.</t>
+  </si>
+  <si>
+    <t>The approach requires a solid grasp of system analysis tools and may be complex for beginners. It can be time-intensive, and its effectiveness depends on how well students can translate theoretical models into practical gamified experiences. More research is needed to explore untapped potential in applying system thinking to broader gamification contexts.</t>
+  </si>
+  <si>
+    <t>This mixed-methods study examines how AI tools impact the development of critical thinking skills among English Education students at X University. It combines quantitative surveys on usage frequency with qualitative interviews to explore how students interact with AI in learning contexts.</t>
+  </si>
+  <si>
+    <t>AI supports idea generation, deeper reflection, and personalized learning. Students who engage critically with AI content benefit from interactive simulations and diverse perspectives, enhancing their analytical skills and cognitive flexibility.</t>
+  </si>
+  <si>
+    <t>The effectiveness of AI depends on students’ questioning skills and interpretation abilities. Risks include overreliance, bias in AI outputs, and the need for a strong foundational understanding to ensure meaningful engagement with AI-generated content.</t>
+  </si>
+  <si>
+    <t>This qualitative case study explores the negative impacts of AI use in academic writing among Indonesian undergraduates. Through semi-structured interviews, the study investigates how AI affects critical thinking, originality, intellectual integrity, and cognitive independence in students’ academic work.</t>
+  </si>
+  <si>
+    <t>The study serves as a cautionary insight, emphasizing the need for ethical AI use and active educator involvement in promoting responsible writing practices. It highlights the importance of teaching students how to critically engage with AI tools rather than depend on them.</t>
+  </si>
+  <si>
+    <t>Findings show that AI may undermine critical thinking, reduce originality, and encourage passive learning behaviors. Overreliance on AI can weaken students' analytical and reflective skills, threatening academic integrity. Broader studies with objective assessments are recommended to validate and expand these findings.</t>
+  </si>
+  <si>
+    <t>This critical literature review develops a theoretical framework integrating MOOCs and gamification to enhance higher-order thinking skills (HOTS). Based on analysis of 19 studies, the framework incorporates connectivism, online collaborative learning, and gamification principles, addressing the gap in designing engaging MOOCs that promote skills like analysis, evaluation, and creativity.</t>
+  </si>
+  <si>
+    <t>The framework guides educators in designing more interactive and cognitively demanding MOOCs by embedding gamified elements to improve engagement, critical thinking, and problem-solving. It supports active and collaborative learning, motivating students and improving perceptions of online learning.</t>
+  </si>
+  <si>
+    <t>Sustaining engagement in MOOCs remains difficult. The effectiveness of specific gamification elements on HOTS needs further empirical validation. Implementation depends on thoughtful instructional design, and future research should explore how different gamified strategies influence learning dynamics and outcomes.</t>
+  </si>
+  <si>
+    <t>This exploratory study investigates how AI tools intersect with critical thinking in science, mathematics, and language education. Interviews with 40 instructors revealed both the enhancing and obstructive roles of AI in supporting students' cognitive development. Analysis focused on how instructors perceive and manage AI's classroom use.</t>
+  </si>
+  <si>
+    <t>AI tools like chatbots and adaptive platforms can support reflective thinking, cognitive flexibility, and deeper content analysis. Instructors leverage AI to prompt comparison, evaluation, and synthesis, encouraging students to critically assess AI-generated outputs.</t>
+  </si>
+  <si>
+    <t>The study warns against over-reliance, which can lead to surface-level understanding and passive learning. When students treat AI as a shortcut, they may bypass essential cognitive processes. Effective use requires active teacher guidance to ensure AI remains a tool for critical engagement, not replacement.</t>
+  </si>
+  <si>
+    <t>This quantitative study investigates the use of Generative AI-enabled cognitive offload instruction to improve critical thinking in English essay writing. Data from 240 first-year English majors showed significant improvements in analytical thinking and writing skills through structured AI-assisted instruction.</t>
+  </si>
+  <si>
+    <t>The approach fosters critical thinking, problem-solving, and communication, while promoting originality and responsible writing. AI serves as a tool for idea expansion and cognitive support, helping students engage more deeply with the writing process in an inclusive, scaffolded environment.</t>
+  </si>
+  <si>
+    <t>Though effective, success depends on structured instructional design and student awareness of ethical AI use. Without guidance, there's a risk of overreliance or surface-level engagement. Ongoing research is needed to refine methods and ensure sustained development of independent thinking.</t>
+  </si>
+  <si>
+    <t>This mixed-methods study examines how combining gamification, multimodal learning, and Project-Based Learning (PBL) enhances higher-order thinking skills (HOTs) in writing instruction. It uses surveys, focus groups, and reflective journals to assess impact on engagement, motivation, and writing proficiency.</t>
+  </si>
+  <si>
+    <t>The integration of real-world projects, gamified challenges, and multisensory tools significantly boosted student engagement (90%), motivation (87%), and writing proficiency (22%). Students also showed strong gains in critical thinking, creativity, and collaborative problem-solving, making writing more dynamic and inclusive.</t>
+  </si>
+  <si>
+    <t>While results are promising, scalability and adaptability across varied educational settings remain uncertain. The approach requires careful design, time investment, and access to diverse learning tools. Further research is needed to evaluate long-term impact and cross-disciplinary application.</t>
+  </si>
+  <si>
+    <t>This conceptual article discusses the challenges of teaching and applying critical thinking in the age of AI, particularly with tools like ChatGPT. It introduces Kenedy’s Model of Cyclical Critical Thinking and emphasizes the need for adaptable, real-world critical thinking that spans academic, professional, and civic life.</t>
+  </si>
+  <si>
+    <t>Promotes a holistic, transferable approach to critical thinking that includes AI/media literacy, encouraging learners to question, analyze, and evaluate AI-generated content. It also emphasizes active, independent learning and supports the development of critical thinking across multiple life contexts.</t>
+  </si>
+  <si>
+    <t>Key issues include the risk of passive AI consumption, lack of structured frameworks for AI evaluation, and gaps in higher education curricula. The article calls for new pedagogical models that integrate critical engagement with AI and support students in becoming reflective thinkers beyond the classroom.</t>
+  </si>
+  <si>
+    <t>This qualitative study explores the integration of AI literacy and adaptive learning in a Moroccan university, focusing on the skills, strategies, and support systems needed to foster critical thinking and personalized education. It draws insights from interviews with students and faculty and a review of current literature.</t>
+  </si>
+  <si>
+    <t>AI is shown to enhance critical thinking, engagement, and learning personalization, helping students develop future-ready skills. The study promotes collaborative projects, curriculum integration, and adaptive learning environments tailored to individual needs.</t>
+  </si>
+  <si>
+    <t>Findings highlight the need for structured AI training, institutional support, and faculty readiness. Without these, the benefits of AI may not be fully realized. The study calls for a comprehensive, long-term strategy to embed AI meaningfully in education.</t>
+  </si>
+  <si>
+    <t>This article presents a systematic literature review of 48 studies (2015–2024) on the use of personalized, AI-enhanced gamification strategies to mitigate cybersecurity risks in financial institutions. It introduces a taxonomy of cyber threats—game-based (e.g., phishing, malware, APTs) and non-game-based (e.g., social engineering)—and explores behavioral, motivational, and AI-driven techniques to enhance cyber resilience.</t>
+  </si>
+  <si>
+    <t>Gamification fosters user engagement, awareness, and proactive behavior in cybersecurity training. By combining AI and behavioral analysis, financial institutions can implement personalized training, real-time feedback, and adaptive risk prevention, promoting critical thinking and security readiness among users.</t>
+  </si>
+  <si>
+    <t>Key challenges include sophisticated threat evolution, user complacency, and balancing motivation with compliance. Implementing AI-gamified solutions requires continuous monitoring, training, and institutional readiness, making scalability and ethical considerations important areas for future research and application.</t>
+  </si>
+  <si>
+    <t>This 8-week intervention study investigates the impact of AI tools (e.g., ChatGPT-3.5, SummarizBot) on critical thinking development in English literature classes among EFL learners. Using a mixed-methods approach, 90 students were divided into experimental and control groups, with AI-integrated activities applied only to the experimental group.</t>
+  </si>
+  <si>
+    <t>Students using AI tools showed statistically significant gains in critical thinking (p &lt; 0.05). AI-supported tasks such as question generation, debates, and quizzes promoted deeper text analysis, argumentation, and reflection, enriching literary engagement and supporting 21st-century learning goals.</t>
+  </si>
+  <si>
+    <t>While results are promising, effectiveness depends on task design, student guidance, and alignment with learning objectives. There's a need to ensure cultural and pedagogical appropriateness of AI tools, and further research is recommended to assess long-term impact and scalability in diverse EFL contexts.</t>
+  </si>
+  <si>
+    <t>This study proposes an architectural framework that integrates gamification and virtual reality (VR) for training and learning with digital twins. It targets educators, project leaders, and developers aiming to teach complex systems through immersive, interactive environments.</t>
+  </si>
+  <si>
+    <t>By combining VR with game elements, the approach enhances engagement, experiential learning, and real-world system comprehension. It supports hands-on, scenario-based training, allowing learners to interact with digital replicas of physical systems in safe and repeatable simulations.</t>
+  </si>
+  <si>
+    <t>The study outlines challenges including technical complexity, high development costs, and the need for interdisciplinary collaboration. Further research is needed to refine user interaction models, ensure scalability, and address data integration and performance within gamified digital twin environments.</t>
+  </si>
+  <si>
+    <t>This systematic review maps the use of Serious Games (SGs) in Software Engineering (SE) education, analyzing 74 studies based on their alignment with SWEBOK areas, Bloom’s Taxonomy, and game mechanics/player profiles. It identifies current trends, success factors, and underexplored dimensions within SGs for SE.</t>
+  </si>
+  <si>
+    <t>SGs in SE education effectively target higher-order thinking skills (e.g., analysis, evaluation, problem-solving) and promote active, team-based, and experiential learning. Key features like realism and collaborative play enhance learner engagement, particularly in areas such as SE management and professional practice.</t>
+  </si>
+  <si>
+    <t>Research remains conference-heavy, with limited journal presence, reflecting the field's emerging nature. Gaps exist in player diversity, with SGs often favoring Achiever and Player types, and in coverage of certain SE knowledge areas (e.g., models and methods). Future directions include AI integration, wider learner profile inclusion, and scalability across educational and industrial contexts.</t>
+  </si>
+  <si>
+    <t>This systematic literature review synthesizes findings from 33 studies (2018–2022) on student engagement in technology-based education, with a focus on gamification, online/distance learning, and general educational technologies. The review is structured using the PRISMA and PICO frameworks.</t>
+  </si>
+  <si>
+    <t>Gamification and virtual learning tools are shown to enhance motivation, interaction, and engagement across all educational levels. The review highlights how digital tools, when thoughtfully implemented, can support active participation and improve learning outcomes, especially in remote learning settings.</t>
+  </si>
+  <si>
+    <t>Engagement in virtual environments presents unique challenges, including student isolation, technology fatigue, and variability in digital access and literacy. The study reveals research gaps in how different tools affect long-term engagement, and calls for more diverse, cross-context studies to guide effective technology integration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study describes a teaching innovation project at the fully online university UNIR, where a gamification system ("gallifantes") was integrated into technology and design courses. Students earned rewards based on participation and engagement, which translated into bonus points on final grades.
+</t>
+  </si>
+  <si>
+    <t>The gamified approach increased motivation, participation, and interaction in both forums and live sessions—key challenges in asynchronous online learning. Students reported higher satisfaction and engagement, and the initiative supported the development of a stronger learning community.</t>
+  </si>
+  <si>
+    <t>While the results were positive, scalability, fairness of point incentives, and continuous improvement were identified as areas to refine. Future versions could explore adaptive gamification, integrate peer collaboration, and expand the system to other academic disciplines.</t>
+  </si>
+  <si>
+    <t>This conceptual paper explores how intelligent technologies can augment cognitive performance and support the self-regulation of critical thinking in complex decision-making contexts. It draws on social cognitive theory, positioning self-regulation as a cyclical, feedback-driven process enhanced through AI tools in real-time work environments.</t>
+  </si>
+  <si>
+    <t>Intelligent systems help learners and professionals analyze data, interpret information, and adjust strategies, fostering higher-order thinking, metacognition, and critical decision-making. These tools can create adaptive learning environments, providing just-in-time support that strengthens critical thinking before, during, and after tasks.</t>
+  </si>
+  <si>
+    <t>Key challenges include ensuring appropriate integration of intelligent tools into learning workflows, avoiding over-reliance that might inhibit independent thinking, and designing systems that balance automation with human agency. The paper emphasizes the need for educators to design instruction that promotes intentional engagement with technology rather than passive dependence.</t>
+  </si>
+  <si>
+    <t>This randomized controlled trial tested a 15-minute online intervention aimed at teaching adolescents how to identify misinformation by leveraging prosocial family values and assigning them an “expert” role. Participants wrote letters to less digitally literate relatives explaining six misinformation-spotting strategies.</t>
+  </si>
+  <si>
+    <t>The intervention promoted critical thinking, media literacy, and metacognitive reflection in a socially meaningful context. It showed immediate gains in fake news detection, with enduring effects for students with high need for cognition, supporting personalized approaches in digital literacy education.</t>
+  </si>
+  <si>
+    <t>While effective short-term, the overall impact faded after four weeks for most students. Long-term retention was stronger only in motivated learners, indicating the need for ongoing reinforcement and tailored interventions. Future programs should explore scalable, repeated engagements to maintain critical thinking gains.</t>
+  </si>
+  <si>
+    <t>This experiential survey investigates the role of video games and gamification in enhancing managers’ strategic thinking and cognitive functions. The study involved 30 students in innovation and entrepreneurship and assessed strategic thinking styles using Pisapia’s model and cognitive abilities via the CANTAB test.</t>
+  </si>
+  <si>
+    <t>The findings highlight the potential of strategic video games to develop reflective, systems, and reframing thinking styles. Games promoting micro-management, planning, and prediction positively influenced attention, reaction time, and memory, supporting the development of higher-order cognitive and decision-making skills essential for leadership.</t>
+  </si>
+  <si>
+    <t>The study's small sample size limits generalizability. Additionally, individual gaming preferences and cognitive baselines may affect outcomes. Further research with larger, diverse managerial cohorts and longitudinal designs is needed to validate the use of games as consistent tools for executive development.</t>
+  </si>
+  <si>
+    <t>This study describes the development of an active-learning app designed to improve critical thinking (CT) through structured multiple-choice reasoning questions. Two studies were conducted: (1) item selection and difficulty calibration based on student performance, and (2) comparison of gamified vs. non-gamified app formats.</t>
+  </si>
+  <si>
+    <t>The app effectively improved CT scores in both gamified and non-gamified versions, demonstrating that structured reasoning tasks with immediate feedback can promote critical thinking. The study supports the use of adaptive digital tools for self-paced CT training, especially in higher education settings.</t>
+  </si>
+  <si>
+    <t>Gamification (e.g., competition features) did not significantly enhance outcomes, suggesting that simple game elements may not be sufficient to increase motivation or performance. The study recommends further research into deeper or personalized gamification strategies and long-term engagement in critical thinking development.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1138,7 +2352,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1154,9 +2368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1194,9 +2408,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1248,7 +2462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1300,7 +2514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1442,21 +2656,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA808105-A136-064F-93A4-D7D1E7A0829A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
@@ -1464,10 +2678,14 @@
     <col min="4" max="4" width="22.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="44.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="44.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="36.1640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="204" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="186">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1507,12 +2725,18 @@
       <c r="M1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="96" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1552,8 +2776,17 @@
       <c r="M2" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="119" x14ac:dyDescent="0.2">
+      <c r="N2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="155">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1593,8 +2826,17 @@
       <c r="M3" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="217" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1634,8 +2876,17 @@
       <c r="M4" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="221" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="210" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1675,8 +2926,17 @@
       <c r="M5" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+      <c r="N5" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="155">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1716,8 +2976,17 @@
       <c r="M6" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="186">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1737,7 +3006,7 @@
         <v>2024</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -1757,8 +3026,17 @@
       <c r="M7" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+      <c r="N7" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="201.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1798,8 +3076,17 @@
       <c r="M8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="N8" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="170.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1839,8 +3126,17 @@
       <c r="M9" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="136" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="155">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1880,8 +3176,17 @@
       <c r="M10" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="N10" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="201.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1921,8 +3226,17 @@
       <c r="M11" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="119" x14ac:dyDescent="0.2">
+      <c r="N11" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="170.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1962,8 +3276,17 @@
       <c r="M12" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+      <c r="N12" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="170.5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2003,8 +3326,17 @@
       <c r="M13" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="136" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="170.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2044,8 +3376,17 @@
       <c r="M14" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="136" x14ac:dyDescent="0.2">
+      <c r="N14" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="155">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2085,8 +3426,17 @@
       <c r="M15" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="136" x14ac:dyDescent="0.2">
+      <c r="N15" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="155">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2126,8 +3476,17 @@
       <c r="M16" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N16" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="170.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2167,8 +3526,17 @@
       <c r="M17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="170.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2208,8 +3576,17 @@
       <c r="M18" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N18" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="170.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2249,8 +3626,17 @@
       <c r="M19" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="170.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2290,8 +3676,17 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N20" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="232.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2331,8 +3726,17 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N21" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="232.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2372,8 +3776,17 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N22" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="139.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2413,8 +3826,17 @@
       <c r="M23" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N23" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="155">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2454,8 +3876,17 @@
       <c r="M24" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N24" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="155">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2495,8 +3926,17 @@
       <c r="M25" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N25" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="170.5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2536,8 +3976,17 @@
       <c r="M26" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N26" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="155">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2577,8 +4026,17 @@
       <c r="M27" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N27" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="186">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2618,8 +4076,17 @@
       <c r="M28" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="170.5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2659,8 +4126,17 @@
       <c r="M29" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N29" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="170.5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2700,8 +4176,17 @@
       <c r="M30" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N30" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="155">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2741,8 +4226,17 @@
       <c r="M31" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N31" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="178" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2782,8 +4276,17 @@
       <c r="M32" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="139.5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2823,8 +4326,17 @@
       <c r="M33" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N33" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="139.5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2864,8 +4376,17 @@
       <c r="M34" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N34" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="155">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2905,8 +4426,17 @@
       <c r="M35" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N35" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="139.5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2946,8 +4476,17 @@
       <c r="M36" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N36" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="170.5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2987,8 +4526,17 @@
       <c r="M37" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N37" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="201.5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3028,8 +4576,17 @@
       <c r="M38" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N38" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="155">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3069,8 +4626,17 @@
       <c r="M39" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N39" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="148" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3110,8 +4676,17 @@
       <c r="M40" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N40" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="155">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3151,8 +4726,17 @@
       <c r="M41" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N41" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="186">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3192,8 +4776,17 @@
       <c r="M42" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N42" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="139.5">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3233,8 +4826,17 @@
       <c r="M43" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N43" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="170.5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3274,8 +4876,17 @@
       <c r="M44" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N44" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="170.5">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3315,8 +4926,17 @@
       <c r="M45" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N45" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="155">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3356,8 +4976,17 @@
       <c r="M46" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N46" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="155">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3397,8 +5026,17 @@
       <c r="M47" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N47" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="186">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3438,8 +5076,17 @@
       <c r="M48" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N48" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="124">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3479,8 +5126,17 @@
       <c r="M49" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N49" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="139.5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3520,8 +5176,17 @@
       <c r="M50" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N50" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="201.5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3561,8 +5226,17 @@
       <c r="M51" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N51" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="201.5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3602,8 +5276,17 @@
       <c r="M52" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N52" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="170.5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3643,8 +5326,17 @@
       <c r="M53" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="127" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3681,8 +5373,17 @@
       <c r="L54" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="186">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3722,8 +5423,17 @@
       <c r="M55" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N55" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="170.5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3763,8 +5473,17 @@
       <c r="M56" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N56" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="186">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3804,8 +5523,17 @@
       <c r="M57" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N57" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="201.5">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3845,8 +5573,17 @@
       <c r="M58" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N58" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="232.5">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3886,8 +5623,17 @@
       <c r="M59" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N59" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="201.5">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3927,8 +5673,17 @@
       <c r="M60" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N60" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="201.5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3968,8 +5723,17 @@
       <c r="M61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N61" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="232.5">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4009,8 +5773,17 @@
       <c r="M62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N62" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="201.5">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4050,8 +5823,17 @@
       <c r="M63" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N63" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="217">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4091,8 +5873,17 @@
       <c r="M64" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N64" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="217">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4132,8 +5923,17 @@
       <c r="M65" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N65" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="232.5">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4173,8 +5973,17 @@
       <c r="M66" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N66" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="196" customHeight="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4214,8 +6023,17 @@
       <c r="M67" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N67" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="217">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4255,8 +6073,17 @@
       <c r="M68" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N68" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="233">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4296,8 +6123,17 @@
       <c r="M69" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N69" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="294.5">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4337,8 +6173,17 @@
       <c r="M70" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N70" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="217">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4378,8 +6223,17 @@
       <c r="M71" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N71" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="263.5">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4419,8 +6273,17 @@
       <c r="M72" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N72" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="232.5">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4460,8 +6323,17 @@
       <c r="M73" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N73" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="232.5">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4501,8 +6373,17 @@
       <c r="M74" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N74" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="139.5">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4542,8 +6423,17 @@
       <c r="M75" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N75" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="124">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4583,8 +6473,17 @@
       <c r="M76" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N76" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="170.5">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4624,8 +6523,17 @@
       <c r="M77" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N77" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="139.5">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4665,8 +6573,17 @@
       <c r="M78" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N78" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="170.5">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4706,8 +6623,17 @@
       <c r="M79" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N79" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="108.5">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4747,8 +6673,17 @@
       <c r="M80" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N80" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="124">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4788,8 +6723,17 @@
       <c r="M81" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N81" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="139.5">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4829,8 +6773,17 @@
       <c r="M82" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N82" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="93">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4871,7 +6824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="155">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4911,8 +6864,17 @@
       <c r="M84" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N84" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="124">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4952,8 +6914,17 @@
       <c r="M85" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N85" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="139.5">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4993,8 +6964,17 @@
       <c r="M86" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N86" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="155">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5034,8 +7014,17 @@
       <c r="M87" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N87" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="124">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5075,8 +7064,17 @@
       <c r="M88" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N88" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="124">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5116,8 +7114,17 @@
       <c r="M89" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="N89" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="124">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5157,8 +7164,17 @@
       <c r="M90" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N90" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="108.5">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5198,8 +7214,17 @@
       <c r="M91" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N91" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="155">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5239,8 +7264,17 @@
       <c r="M92" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N92" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="124">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5280,8 +7314,17 @@
       <c r="M93" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N93" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="124">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5321,8 +7364,17 @@
       <c r="M94" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N94" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="170.5">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5362,8 +7414,17 @@
       <c r="M95" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N95" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="155">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5403,8 +7464,17 @@
       <c r="M96" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N96" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="139.5">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5444,8 +7514,17 @@
       <c r="M97" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N97" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="124">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5485,8 +7564,17 @@
       <c r="M98" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N98" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="170.5">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5526,8 +7614,17 @@
       <c r="M99" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N99" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="139.5">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5567,8 +7664,17 @@
       <c r="M100" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N100" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="139.5">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5608,8 +7714,17 @@
       <c r="M101" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N101" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="139.5">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5649,9 +7764,18 @@
       <c r="M102" s="1">
         <v>37</v>
       </c>
+      <c r="N102" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>614</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M180" xr:uid="{AA808105-A136-064F-93A4-D7D1E7A0829A}"/>
+  <autoFilter ref="A1:M180"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
